--- a/TCs & Issues_Hend Gomaa.xlsx
+++ b/TCs & Issues_Hend Gomaa.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="847"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="847" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="13" r:id="rId1"/>
     <sheet name="TCs_Login" sheetId="2" r:id="rId2"/>
+    <sheet name="TCs_User Managment" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="351">
   <si>
     <t>ID</t>
   </si>
@@ -335,13 +336,851 @@
   <si>
     <t>Initiate the document &amp;
  Create Login TCs</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User Management</t>
+  </si>
+  <si>
+    <t>UM_1</t>
+  </si>
+  <si>
+    <t>User Management _ GUI</t>
+  </si>
+  <si>
+    <t>1. User already logged in 2. User has privilege to add users</t>
+  </si>
+  <si>
+    <t>1. Navigate to User management page → Users</t>
+  </si>
+  <si>
+    <t>users page opens successfully</t>
+  </si>
+  <si>
+    <t>UM_2</t>
+  </si>
+  <si>
+    <t>User Management _ Sorting</t>
+  </si>
+  <si>
+    <t>Check sorting for User name column</t>
+  </si>
+  <si>
+    <t>Check sorting for User role column</t>
+  </si>
+  <si>
+    <t>Check sorting for employee name column</t>
+  </si>
+  <si>
+    <t>Check sorting for status column</t>
+  </si>
+  <si>
+    <t>UM_3</t>
+  </si>
+  <si>
+    <t>User Management_ search grid collapsing</t>
+  </si>
+  <si>
+    <t>Check that search grid collapses upon clicking on it</t>
+  </si>
+  <si>
+    <t>UM_4</t>
+  </si>
+  <si>
+    <t>User Management_ Check Box</t>
+  </si>
+  <si>
+    <t>Check one of check boxes</t>
+  </si>
+  <si>
+    <t>the selected one is checked</t>
+  </si>
+  <si>
+    <t>check all check boxes</t>
+  </si>
+  <si>
+    <t>the "check all" option is checked</t>
+  </si>
+  <si>
+    <t>click "Check all" option</t>
+  </si>
+  <si>
+    <t>all check boxes are checked</t>
+  </si>
+  <si>
+    <t>uncheck one of check boxes after checking "Check all" option</t>
+  </si>
+  <si>
+    <t>the "Check all" option is unchecked</t>
+  </si>
+  <si>
+    <t>UM_5</t>
+  </si>
+  <si>
+    <t>User Management_ clickable users records</t>
+  </si>
+  <si>
+    <t>check that only username parameter is clickable in users table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add User </t>
+  </si>
+  <si>
+    <t>UM_AU_1</t>
+  </si>
+  <si>
+    <t>Add New User _ Valid data (user is allowed in DB)</t>
+  </si>
+  <si>
+    <t>1. User already logged in and  has privilege to add users
+2. allowed users are inserted in DB table</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to User management page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">→ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Click Add Button </t>
+  </si>
+  <si>
+    <t>1. Add user page opens
+2. All fields are on  default format</t>
+  </si>
+  <si>
+    <t>3. Enter All mandatory fields</t>
+  </si>
+  <si>
+    <t>User Role: ESS
+Employee Name: John Smith
+Username: Hgomaa
+Status : Enabled
+Password: Hend1234
+Confirm Password: Hend123</t>
+  </si>
+  <si>
+    <t>4. Click Save button</t>
+  </si>
+  <si>
+    <t>1. added user is saved successfully and the page is closed
+2. admin is re-directed to the users page
+3. success message displayed
+4. inserted user is displayed in the users list in users page
+5. added user can login with inserted credentials</t>
+  </si>
+  <si>
+    <t>UM_AU_2</t>
+  </si>
+  <si>
+    <t>Add New User_ already exist</t>
+  </si>
+  <si>
+    <t>1. User already logged in and  has privilege to add users
+2. allowed users are inserted in DB table
+3. previous TC is passed</t>
+  </si>
+  <si>
+    <t>1. Error message displayed informing user is already exist
+2. added user is not saved</t>
+  </si>
+  <si>
+    <t>UM_AU_3</t>
+  </si>
+  <si>
+    <t>Check Validations on (User Role) field</t>
+  </si>
+  <si>
+    <t>1. User already logged in and  has privilege to add users
+2. allowed users are inserted in DB table
+3. User inserted all page details except the one mentioned in this validation step</t>
+  </si>
+  <si>
+    <t>Check field type</t>
+  </si>
+  <si>
+    <t>Drop down menu</t>
+  </si>
+  <si>
+    <t>Check mandatory value</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>Try to insert manually</t>
+  </si>
+  <si>
+    <t>1. not removed
+ 2. must select of the menu values</t>
+  </si>
+  <si>
+    <t>try to remove the default value</t>
+  </si>
+  <si>
+    <t>1. not removed
+ 2. can't be empty</t>
+  </si>
+  <si>
+    <t>check the correct retrieval from DB table</t>
+  </si>
+  <si>
+    <t>all the table values are retrieved based on the set role</t>
+  </si>
+  <si>
+    <t>make sure that filed is mandatory</t>
+  </si>
+  <si>
+    <t>* is added next to the field and can't be empty</t>
+  </si>
+  <si>
+    <t>select any of the menu values</t>
+  </si>
+  <si>
+    <t>selection is accepted based on the inserted user role</t>
+  </si>
+  <si>
+    <t>UM_AU_4</t>
+  </si>
+  <si>
+    <t>Check Validations on (Employee Name) field</t>
+  </si>
+  <si>
+    <t>Text field connected to DB</t>
+  </si>
+  <si>
+    <t>Check the default value</t>
+  </si>
+  <si>
+    <t>Empty with tip (type for hints...)</t>
+  </si>
+  <si>
+    <t>insert name not in allowed users table on the DB</t>
+  </si>
+  <si>
+    <t>error message displayed</t>
+  </si>
+  <si>
+    <t>insert special char</t>
+  </si>
+  <si>
+    <t>Insert Arabic char</t>
+  </si>
+  <si>
+    <t>Insert numbers</t>
+  </si>
+  <si>
+    <t>insert SQL statement or HTL Tags</t>
+  </si>
+  <si>
+    <t>check for maximum length</t>
+  </si>
+  <si>
+    <t>check the suggestion feature</t>
+  </si>
+  <si>
+    <t>users matched with inserted letters are retrieved</t>
+  </si>
+  <si>
+    <t>UM_AU_5</t>
+  </si>
+  <si>
+    <t>Check Validations on (Username) field</t>
+  </si>
+  <si>
+    <t>Text field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty </t>
+  </si>
+  <si>
+    <t>insert Username added before</t>
+  </si>
+  <si>
+    <t>check for minimum length</t>
+  </si>
+  <si>
+    <t>as specified in the requirement doc</t>
+  </si>
+  <si>
+    <t>insert spaces only</t>
+  </si>
+  <si>
+    <t>Insert space in the inserted Username</t>
+  </si>
+  <si>
+    <t>UM_AU_6</t>
+  </si>
+  <si>
+    <t>Check Validations on (Status) field</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>UM_AU_7</t>
+  </si>
+  <si>
+    <t>Check Validations on (Password) field</t>
+  </si>
+  <si>
+    <t>try upper case and lower case</t>
+  </si>
+  <si>
+    <t>password accepted</t>
+  </si>
+  <si>
+    <t>password accepted and DB not affected with the statement</t>
+  </si>
+  <si>
+    <t>as specified in the requirement doc
+8</t>
+  </si>
+  <si>
+    <t>as specified in the requirement doc
+64</t>
+  </si>
+  <si>
+    <t>Insert space in the inserted password</t>
+  </si>
+  <si>
+    <t>Check that password is inserted in password format (not readable)</t>
+  </si>
+  <si>
+    <t>password is inserted in password format (not readable)</t>
+  </si>
+  <si>
+    <t>check that password can't be copied</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> password can't be copied</t>
+  </si>
+  <si>
+    <t>UM_AU_8</t>
+  </si>
+  <si>
+    <t>Check Validations on (Confirm Password) field</t>
+  </si>
+  <si>
+    <t>Check that only values matches inserted password are accepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> values matches inserted password are only accepted</t>
+  </si>
+  <si>
+    <t>UM_AU_9</t>
+  </si>
+  <si>
+    <t>Check Password meter validations</t>
+  </si>
+  <si>
+    <t>1. User already logged in and  has privilege to add users</t>
+  </si>
+  <si>
+    <t>check existence</t>
+  </si>
+  <si>
+    <t>Password meter is located next to the password field</t>
+  </si>
+  <si>
+    <t>check that the meter is updated with based on inserted password strength</t>
+  </si>
+  <si>
+    <t>as specified in the requirement doc
+* Very Weak
+* Weak
+* Better</t>
+  </si>
+  <si>
+    <t>UM_AU_10</t>
+  </si>
+  <si>
+    <t>Add New User _ previously deleted user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User already logged in and  has privilege to add users
+2. allowed users are inserted in DB table
+3. one of users is deleted </t>
+  </si>
+  <si>
+    <t>User Role: ESS
+Employee Name: Hend Gomaa
+Username: Hgomaa
+Status : Enabled
+Password: Hend123
+Confirm Password: Hend123</t>
+  </si>
+  <si>
+    <t>1. added user is saved successfully and the page is closed
+2. admin is re-directed to the users page
+3. success message displayed
+4. Inserted user is displayed in the users list in users page
+5. added user can login with inserted credentials</t>
+  </si>
+  <si>
+    <t>UM_AU_11</t>
+  </si>
+  <si>
+    <t>Add New User _ Check GUI</t>
+  </si>
+  <si>
+    <t>1. User already logged in and  has privilege to add users
+2. allowed users are privilege to access add User page</t>
+  </si>
+  <si>
+    <t>1. Open Add User page</t>
+  </si>
+  <si>
+    <t>Add users page opens successfully</t>
+  </si>
+  <si>
+    <t>Add New User _ Notification</t>
+  </si>
+  <si>
+    <t>1. Add new user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Check the add user e-mail/mobile </t>
+  </si>
+  <si>
+    <t>a notification is sent with the username and password and request to change his password</t>
+  </si>
+  <si>
+    <t>***as this info is missed, I assumed based on the previous experience of mine just to complete the scenario here but that should be declared and also how the customer to be notified and where will be the link between the account and the connection method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit User </t>
+  </si>
+  <si>
+    <t>UM_EU_1</t>
+  </si>
+  <si>
+    <t>Edit User _ view user details</t>
+  </si>
+  <si>
+    <t>1. User already logged in and  has privilege to edit users
+2. user is in users page 
+3. users list contains saved users</t>
+  </si>
+  <si>
+    <t>1. click on a certain username</t>
+  </si>
+  <si>
+    <t>username: fiona.grace</t>
+  </si>
+  <si>
+    <t>1. User details are displayed in view only mode
+2. based on the user privilege, user can view only or edit user details</t>
+  </si>
+  <si>
+    <t>UM_EU_2</t>
+  </si>
+  <si>
+    <t>Edit User _ save valid changes</t>
+  </si>
+  <si>
+    <t>select edit button</t>
+  </si>
+  <si>
+    <t>1. page fields are displayed in edit mode
+2. edit button is replaced with save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update with valid data </t>
+  </si>
+  <si>
+    <t>***as in add user validation TCs</t>
+  </si>
+  <si>
+    <t>click save button</t>
+  </si>
+  <si>
+    <t>1. Updated user is saved successfully and the page is closed
+2. admin is re-directed to the users page
+3. success message displayed
+4. Updated user is displayed in the users list in users page with updated data
+5. Updated user can login with inserted credentials</t>
+  </si>
+  <si>
+    <t>UM_EU_3</t>
+  </si>
+  <si>
+    <t>Edit User _ save invalid changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update with invalid data </t>
+  </si>
+  <si>
+    <t>Error message displayed</t>
+  </si>
+  <si>
+    <t>UM_EU_4</t>
+  </si>
+  <si>
+    <t>Edit User _ cancel changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update data </t>
+  </si>
+  <si>
+    <t>click cancel button</t>
+  </si>
+  <si>
+    <t>user returned to User Management page</t>
+  </si>
+  <si>
+    <t>UM_EU_5</t>
+  </si>
+  <si>
+    <t>Edit User _ change password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select edit button and check </t>
+  </si>
+  <si>
+    <t>Check change password check box</t>
+  </si>
+  <si>
+    <t>change password fields displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update password </t>
+  </si>
+  <si>
+    <t>password updates are saved</t>
+  </si>
+  <si>
+    <t>1. Updated user is saved successfully and the page is closed
+2. admin is re-directed to the users page
+3. success message displayed
+4. Updated user is displayed in the users list in users page with updated data
+5. Updated user can login with inserted credentials
+6. 4. any active session for updated user to be terminated and user to be logged out</t>
+  </si>
+  <si>
+    <t>UM_EU_6</t>
+  </si>
+  <si>
+    <t>Edit User _ Check GUI</t>
+  </si>
+  <si>
+    <t>1. User already logged in and  has privilege to Edit users
+2. allowed users are privilege to access add User page</t>
+  </si>
+  <si>
+    <t>1. Open Edit User page</t>
+  </si>
+  <si>
+    <t>Edit user page opens successfully</t>
+  </si>
+  <si>
+    <t>UM_EU_7</t>
+  </si>
+  <si>
+    <t>Edit User _ Notification</t>
+  </si>
+  <si>
+    <t>1. Edit user and change password</t>
+  </si>
+  <si>
+    <t>Edit users page opens successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Check the updated user e-mail/mobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete User </t>
+  </si>
+  <si>
+    <t>UM_DU_1</t>
+  </si>
+  <si>
+    <t>Delete User _ button</t>
+  </si>
+  <si>
+    <t>1. User already logged in and  has privilege to delete users
+2. user is in users page 
+3. users list contains saved users</t>
+  </si>
+  <si>
+    <t>Check that delete button is inactive if no user is selected</t>
+  </si>
+  <si>
+    <t>UM_DU_2</t>
+  </si>
+  <si>
+    <t>Delete User _ delete user</t>
+  </si>
+  <si>
+    <t>1. select check box for a user</t>
+  </si>
+  <si>
+    <t>check box selected</t>
+  </si>
+  <si>
+    <t>click delete button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirmation message displayed </t>
+  </si>
+  <si>
+    <t>click "Ok" button</t>
+  </si>
+  <si>
+    <t>1. selected record deleted
+2. success message displayed
+3. the deleted user is removed from users list
+4. any active session for deleted user to be terminated and user to be logged out</t>
+  </si>
+  <si>
+    <t>UM_DU_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete User_ cancel user deletion </t>
+  </si>
+  <si>
+    <t>click Cancel" button</t>
+  </si>
+  <si>
+    <t>1. the confirmation message closed
+2. the user is not deleted and still displayed in users list</t>
+  </si>
+  <si>
+    <t>UM_DU_4</t>
+  </si>
+  <si>
+    <t>Delete User_ delete multiple users</t>
+  </si>
+  <si>
+    <t>1. select check boxes for multiple users</t>
+  </si>
+  <si>
+    <t>check boxes selected</t>
+  </si>
+  <si>
+    <t>1. selected records deleted
+2. success message displayed
+3. the deleted users are removed from users list
+4. any active session for deleted users to be terminated and users to be logged out</t>
+  </si>
+  <si>
+    <t>UM_DU_5</t>
+  </si>
+  <si>
+    <t>Delete User_ delete All users</t>
+  </si>
+  <si>
+    <t>1. select "check All" check box for a user</t>
+  </si>
+  <si>
+    <t>All check boxes selected</t>
+  </si>
+  <si>
+    <t>Delete User_ delete system admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that system "Admin" can't be deleted </t>
+  </si>
+  <si>
+    <t>No check box is associated for the system "Admin"</t>
+  </si>
+  <si>
+    <t>Delete User _ delete regular admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that regular users with "admin" role can be deleted </t>
+  </si>
+  <si>
+    <t>a check box is associated for the regular "Admin" role users and can be deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search User </t>
+  </si>
+  <si>
+    <t>UM_SU_1</t>
+  </si>
+  <si>
+    <t>Search User _ search existing records</t>
+  </si>
+  <si>
+    <t>1. User already logged in and  has privilege to search users
+2. user is in users page 
+3. users list contains saved users</t>
+  </si>
+  <si>
+    <t>insert valid search criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. username: fiona.grace
+2. username: fion
+3. username: grace
+4. employee name: fiona grace
+5. employee name: grace
+6. employee name: fiona </t>
+  </si>
+  <si>
+    <t>click search button</t>
+  </si>
+  <si>
+    <t>results matches / containing the search criteria displayed</t>
+  </si>
+  <si>
+    <t>UM_SU_2</t>
+  </si>
+  <si>
+    <t>Search User _ search non-existing records</t>
+  </si>
+  <si>
+    <t>insert invalid search criteria</t>
+  </si>
+  <si>
+    <t>No results found message displayed</t>
+  </si>
+  <si>
+    <t>UM_SU_3</t>
+  </si>
+  <si>
+    <t>Search User _ search with specific Username</t>
+  </si>
+  <si>
+    <t>insert username</t>
+  </si>
+  <si>
+    <t>complete and partial</t>
+  </si>
+  <si>
+    <t>all records with the username are displayed</t>
+  </si>
+  <si>
+    <t>UM_SU_4</t>
+  </si>
+  <si>
+    <t>Search User _ search with specific Employee name</t>
+  </si>
+  <si>
+    <t>insert Employee name</t>
+  </si>
+  <si>
+    <t>all records with the Employee name are displayed</t>
+  </si>
+  <si>
+    <t>UM_SU_5</t>
+  </si>
+  <si>
+    <t>Search User _ search with specific status</t>
+  </si>
+  <si>
+    <t>select a status</t>
+  </si>
+  <si>
+    <t>all records with the selected status are displayed</t>
+  </si>
+  <si>
+    <t>UM_SU_6</t>
+  </si>
+  <si>
+    <t>Search User _ search with All status</t>
+  </si>
+  <si>
+    <t>select all in status menu</t>
+  </si>
+  <si>
+    <t>all records are displayed</t>
+  </si>
+  <si>
+    <t>UM_SU_7</t>
+  </si>
+  <si>
+    <t>Search User _ search with specific role</t>
+  </si>
+  <si>
+    <t>select a specific role</t>
+  </si>
+  <si>
+    <t>all records with the selected role are displayed</t>
+  </si>
+  <si>
+    <t>UM_SU_8</t>
+  </si>
+  <si>
+    <t>Search User _ search with All role</t>
+  </si>
+  <si>
+    <t>select all in role menu</t>
+  </si>
+  <si>
+    <t>UM_SU_9</t>
+  </si>
+  <si>
+    <t>Search User _ search with combination of data</t>
+  </si>
+  <si>
+    <t>select with combination of data</t>
+  </si>
+  <si>
+    <t>all records matches the inserted data are displayed</t>
+  </si>
+  <si>
+    <t>UM_SU_10</t>
+  </si>
+  <si>
+    <t>Search User _ re-set search criteria</t>
+  </si>
+  <si>
+    <t>click re-set button</t>
+  </si>
+  <si>
+    <t>all search fields are returned to its default state</t>
+  </si>
+  <si>
+    <t>UM_SU_11</t>
+  </si>
+  <si>
+    <t>Search User _ Check GUI</t>
+  </si>
+  <si>
+    <t>1. User already logged in and  has privilege to Search users
+2. allowed users are privilege to access add User page</t>
+  </si>
+  <si>
+    <t>1. Open User management page</t>
+  </si>
+  <si>
+    <t>User management page opens successfully</t>
+  </si>
+  <si>
+    <t>Finalize TCs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +1211,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -454,7 +1308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -844,12 +1698,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -998,6 +1937,63 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1051,6 +2047,78 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1391,8 +2459,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,8 +2476,8 @@
       <c r="A2" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
     </row>
     <row r="5" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25">
@@ -1441,10 +2509,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="42"/>
+      <c r="A8" s="42">
+        <v>1</v>
+      </c>
+      <c r="B8" s="43">
+        <v>43449</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
@@ -1482,7 +2558,7 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F73" sqref="F73"/>
-      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,19 +2578,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1551,28 +2627,28 @@
       <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="79" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1591,9 +2667,9 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="61"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1608,9 +2684,9 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="61"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1627,9 +2703,9 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1657,13 +2733,13 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="79" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1682,9 +2758,9 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="61"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1699,9 +2775,9 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1718,9 +2794,9 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1748,13 +2824,13 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="79" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1773,9 +2849,9 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="61"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1790,9 +2866,9 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="61"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1809,9 +2885,9 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="62"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1839,13 +2915,13 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="79" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1864,9 +2940,9 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="61"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1881,9 +2957,9 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="61"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1900,9 +2976,9 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="62"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1930,13 +3006,13 @@
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="79" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1955,9 +3031,9 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="61"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
@@ -1969,9 +3045,9 @@
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="61"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1986,9 +3062,9 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="62"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="3" t="s">
         <v>16</v>
       </c>
@@ -2016,13 +3092,13 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="79" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2041,9 +3117,9 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="61"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="80"/>
       <c r="D30" s="3" t="s">
         <v>12</v>
       </c>
@@ -2058,9 +3134,9 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="61"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="80"/>
       <c r="D31" s="1" t="s">
         <v>15</v>
       </c>
@@ -2073,9 +3149,9 @@
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="3" t="s">
         <v>16</v>
       </c>
@@ -2103,13 +3179,13 @@
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="79" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2128,9 +3204,9 @@
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="61"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="80"/>
       <c r="D35" s="3" t="s">
         <v>12</v>
       </c>
@@ -2142,9 +3218,9 @@
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="61"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="80"/>
       <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
@@ -2157,9 +3233,9 @@
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="62"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="3" t="s">
         <v>16</v>
       </c>
@@ -2187,13 +3263,13 @@
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="79" t="s">
         <v>51</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2212,9 +3288,9 @@
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="61"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="80"/>
       <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
@@ -2229,9 +3305,9 @@
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="61"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="80"/>
       <c r="D41" s="1" t="s">
         <v>15</v>
       </c>
@@ -2246,9 +3322,9 @@
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="81"/>
       <c r="D42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2276,13 +3352,13 @@
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="79" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2301,9 +3377,9 @@
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="61"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="80"/>
       <c r="D45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2318,9 +3394,9 @@
       <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="61"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
@@ -2335,9 +3411,9 @@
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="62"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2365,13 +3441,13 @@
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="79" t="s">
         <v>52</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -2390,9 +3466,9 @@
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="61"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="80"/>
       <c r="D50" s="3" t="s">
         <v>12</v>
       </c>
@@ -2404,9 +3480,9 @@
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="61"/>
+      <c r="A51" s="74"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="80"/>
       <c r="D51" s="1" t="s">
         <v>15</v>
       </c>
@@ -2419,9 +3495,9 @@
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="62"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="81"/>
       <c r="D52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2449,13 +3525,13 @@
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="79" t="s">
         <v>91</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -2474,9 +3550,9 @@
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="61"/>
+      <c r="A55" s="74"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="80"/>
       <c r="D55" s="3" t="s">
         <v>12</v>
       </c>
@@ -2491,9 +3567,9 @@
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="61"/>
+      <c r="A56" s="74"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="80"/>
       <c r="D56" s="1" t="s">
         <v>15</v>
       </c>
@@ -2508,9 +3584,9 @@
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="62"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="81"/>
       <c r="D57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2538,13 +3614,13 @@
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="79" t="s">
         <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -2563,9 +3639,9 @@
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="61"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="80"/>
       <c r="D60" s="3" t="s">
         <v>12</v>
       </c>
@@ -2580,9 +3656,9 @@
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="61"/>
+      <c r="A61" s="74"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="80"/>
       <c r="D61" s="1" t="s">
         <v>15</v>
       </c>
@@ -2597,9 +3673,9 @@
       <c r="K61" s="6"/>
     </row>
     <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="62"/>
+      <c r="A62" s="75"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="81"/>
       <c r="D62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2627,13 +3703,13 @@
       <c r="K63" s="6"/>
     </row>
     <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="60" t="s">
+      <c r="C64" s="79" t="s">
         <v>92</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -2652,9 +3728,9 @@
       <c r="K64" s="6"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="61"/>
+      <c r="A65" s="74"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="80"/>
       <c r="D65" s="3" t="s">
         <v>12</v>
       </c>
@@ -2669,9 +3745,9 @@
       <c r="K65" s="6"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="61"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="80"/>
       <c r="D66" s="1" t="s">
         <v>15</v>
       </c>
@@ -2686,9 +3762,9 @@
       <c r="K66" s="6"/>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="62"/>
+      <c r="A67" s="75"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="81"/>
       <c r="D67" s="3" t="s">
         <v>16</v>
       </c>
@@ -2716,13 +3792,13 @@
       <c r="K68" s="6"/>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="79" t="s">
         <v>55</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -2741,9 +3817,9 @@
       <c r="K69" s="6"/>
     </row>
     <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="62"/>
+      <c r="A70" s="83"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="81"/>
       <c r="D70" s="3" t="s">
         <v>56</v>
       </c>
@@ -2770,18 +3846,18 @@
       <c r="K71" s="6"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="53"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="72"/>
       <c r="K72" s="6"/>
     </row>
     <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4482,7 +5558,6 @@
       <c r="F209" s="18"/>
       <c r="G209" s="9"/>
       <c r="H209" s="10"/>
-      <c r="I209" s="10"/>
       <c r="J209" s="11"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -5129,4 +6204,5485 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:K374"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5:I264"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="36" style="7" customWidth="1"/>
+    <col min="6" max="6" width="40" style="7" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="24" customWidth="1"/>
+    <col min="8" max="9" width="6.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="22" style="7" customWidth="1"/>
+    <col min="11" max="11" width="42.140625" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25"/>
+      <c r="B1" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="83"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="99"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="99"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="100"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="99"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="99"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="100"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="88"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="90"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="90"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="91"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="90"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="90"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="91"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="56"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
+    </row>
+    <row r="34" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="90"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="60"/>
+      <c r="F34" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="56"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
+    </row>
+    <row r="35" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="90"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="56"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
+    </row>
+    <row r="36" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="90"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="56"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
+    </row>
+    <row r="37" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="90"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="56"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="58"/>
+    </row>
+    <row r="38" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="90"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="60"/>
+      <c r="F38" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="56"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
+    </row>
+    <row r="39" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="91"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="56"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="58"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="107" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="56"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="58"/>
+    </row>
+    <row r="42" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="90"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="60"/>
+      <c r="F42" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" s="56"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58"/>
+    </row>
+    <row r="43" spans="1:10" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="90"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="56"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
+    </row>
+    <row r="44" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="90"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="60"/>
+      <c r="F44" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="56"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="90"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="56"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="58"/>
+    </row>
+    <row r="46" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="90"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="60"/>
+      <c r="F46" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="56"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="58"/>
+    </row>
+    <row r="47" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="90"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="56"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="58"/>
+    </row>
+    <row r="48" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="90"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="60"/>
+      <c r="F48" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" s="56"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
+    </row>
+    <row r="49" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="90"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="58"/>
+    </row>
+    <row r="50" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="91"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="62"/>
+      <c r="F50" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="G50" s="56"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="58"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="56"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="58"/>
+    </row>
+    <row r="53" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="90"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="60"/>
+      <c r="F53" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="G53" s="56"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="58"/>
+    </row>
+    <row r="54" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="90"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54" s="56"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="58"/>
+    </row>
+    <row r="55" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="90"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="60"/>
+      <c r="F55" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G55" s="56"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="58"/>
+    </row>
+    <row r="56" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="90"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G56" s="56"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="58"/>
+    </row>
+    <row r="57" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="90"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="60"/>
+      <c r="F57" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G57" s="56"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="58"/>
+    </row>
+    <row r="58" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="90"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G58" s="56"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="58"/>
+    </row>
+    <row r="59" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="90"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="60"/>
+      <c r="F59" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="G59" s="56"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="58"/>
+    </row>
+    <row r="60" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="90"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G60" s="56"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="58"/>
+    </row>
+    <row r="61" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="90"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="60"/>
+      <c r="F61" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="G61" s="56"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="58"/>
+    </row>
+    <row r="62" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="90"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G62" s="56"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="58"/>
+    </row>
+    <row r="63" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="91"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" s="60"/>
+      <c r="F63" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63" s="56"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="58"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="16"/>
+    </row>
+    <row r="65" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G65" s="56"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="58"/>
+    </row>
+    <row r="66" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="90"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="60"/>
+      <c r="F66" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="G66" s="56"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="58"/>
+    </row>
+    <row r="67" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="90"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G67" s="56"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="58"/>
+    </row>
+    <row r="68" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="90"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" s="60"/>
+      <c r="F68" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" s="56"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="58"/>
+    </row>
+    <row r="69" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="90"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G69" s="56"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="58"/>
+    </row>
+    <row r="70" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="90"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" s="60"/>
+      <c r="F70" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="G70" s="56"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="58"/>
+    </row>
+    <row r="71" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="91"/>
+      <c r="B71" s="103"/>
+      <c r="C71" s="106"/>
+      <c r="D71" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G71" s="56"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="58"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="28"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="16"/>
+    </row>
+    <row r="73" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" s="101" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G73" s="56"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="58"/>
+    </row>
+    <row r="74" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="90"/>
+      <c r="B74" s="102"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74" s="60"/>
+      <c r="F74" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="G74" s="56"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="58"/>
+    </row>
+    <row r="75" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="90"/>
+      <c r="B75" s="102"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G75" s="56"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="58"/>
+    </row>
+    <row r="76" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="90"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" s="60"/>
+      <c r="F76" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="G76" s="56"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="58"/>
+    </row>
+    <row r="77" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="90"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G77" s="56"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="58"/>
+    </row>
+    <row r="78" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="90"/>
+      <c r="B78" s="102"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" s="60"/>
+      <c r="F78" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="G78" s="56"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="58"/>
+    </row>
+    <row r="79" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="90"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G79" s="56"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="58"/>
+    </row>
+    <row r="80" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="90"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E80" s="60"/>
+      <c r="F80" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="G80" s="56"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="58"/>
+    </row>
+    <row r="81" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="90"/>
+      <c r="B81" s="102"/>
+      <c r="C81" s="105"/>
+      <c r="D81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G81" s="56"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="58"/>
+    </row>
+    <row r="82" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="90"/>
+      <c r="B82" s="102"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E82" s="60"/>
+      <c r="F82" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G82" s="56"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="58"/>
+    </row>
+    <row r="83" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="90"/>
+      <c r="B83" s="102"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G83" s="56"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="58"/>
+    </row>
+    <row r="84" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="90"/>
+      <c r="B84" s="102"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" s="62"/>
+      <c r="F84" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="G84" s="56"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="58"/>
+    </row>
+    <row r="85" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="91"/>
+      <c r="B85" s="103"/>
+      <c r="C85" s="106"/>
+      <c r="D85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G85" s="56"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="58"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="28"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="59"/>
+    </row>
+    <row r="87" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="101" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G87" s="56"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="58"/>
+    </row>
+    <row r="88" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="90"/>
+      <c r="B88" s="102"/>
+      <c r="C88" s="105"/>
+      <c r="D88" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" s="60"/>
+      <c r="F88" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="G88" s="56"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="58"/>
+    </row>
+    <row r="89" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="90"/>
+      <c r="B89" s="102"/>
+      <c r="C89" s="105"/>
+      <c r="D89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G89" s="56"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="58"/>
+    </row>
+    <row r="90" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="90"/>
+      <c r="B90" s="102"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90" s="62"/>
+      <c r="F90" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="G90" s="56"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="58"/>
+    </row>
+    <row r="91" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="90"/>
+      <c r="B91" s="102"/>
+      <c r="C91" s="105"/>
+      <c r="D91" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" s="56"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="58"/>
+    </row>
+    <row r="92" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="91"/>
+      <c r="B92" s="103"/>
+      <c r="C92" s="106"/>
+      <c r="D92" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E92" s="60"/>
+      <c r="F92" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="G92" s="56"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="57"/>
+      <c r="J92" s="58"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="16"/>
+    </row>
+    <row r="94" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" s="101" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G94" s="56"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="58"/>
+    </row>
+    <row r="95" spans="1:11" s="59" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="91"/>
+      <c r="B95" s="103"/>
+      <c r="C95" s="106"/>
+      <c r="D95" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="E95" s="60"/>
+      <c r="F95" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="G95" s="56"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="58"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="63"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="59"/>
+    </row>
+    <row r="97" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G97" s="9"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="11"/>
+    </row>
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="90"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G98" s="9"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="11"/>
+    </row>
+    <row r="99" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A99" s="90"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="11"/>
+    </row>
+    <row r="100" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A100" s="91"/>
+      <c r="B100" s="94"/>
+      <c r="C100" s="97"/>
+      <c r="D100" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G100" s="9"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="11"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="16"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="B102" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G102" s="9"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="83"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="81"/>
+      <c r="D103" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G103" s="9"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="16"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="B105" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G105" s="9"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="11"/>
+    </row>
+    <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="83"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="81"/>
+      <c r="D106" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G106" s="9"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="66" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="16"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="B108" s="110"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="11"/>
+    </row>
+    <row r="109" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="G109" s="9"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="11"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="16"/>
+    </row>
+    <row r="111" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="B111" s="92" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G111" s="9"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="11"/>
+    </row>
+    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="99"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="80"/>
+      <c r="D112" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G112" s="9"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="11"/>
+    </row>
+    <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="99"/>
+      <c r="B113" s="93"/>
+      <c r="C113" s="80"/>
+      <c r="D113" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A114" s="100"/>
+      <c r="B114" s="94"/>
+      <c r="C114" s="81"/>
+      <c r="D114" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G114" s="9"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="58"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="28"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="16"/>
+    </row>
+    <row r="116" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G116" s="9"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="11"/>
+    </row>
+    <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="99"/>
+      <c r="B117" s="93"/>
+      <c r="C117" s="80"/>
+      <c r="D117" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G117" s="9"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="11"/>
+    </row>
+    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="99"/>
+      <c r="B118" s="93"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="100"/>
+      <c r="B119" s="94"/>
+      <c r="C119" s="81"/>
+      <c r="D119" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G119" s="9"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="11"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="28"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="16"/>
+    </row>
+    <row r="121" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="B121" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="C121" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G121" s="9"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="11"/>
+    </row>
+    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="99"/>
+      <c r="B122" s="93"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E122" s="4"/>
+      <c r="F122" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G122" s="9"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="11"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="99"/>
+      <c r="B123" s="93"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="11"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="100"/>
+      <c r="B124" s="94"/>
+      <c r="C124" s="81"/>
+      <c r="D124" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E124" s="4"/>
+      <c r="F124" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G124" s="9"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="11"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="28"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="16"/>
+    </row>
+    <row r="126" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="98" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G126" s="9"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="11"/>
+    </row>
+    <row r="127" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="99"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="80"/>
+      <c r="D127" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E127" s="4"/>
+      <c r="F127" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G127" s="9"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="11"/>
+    </row>
+    <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="99"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="80"/>
+      <c r="D128" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G128" s="9"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="11"/>
+    </row>
+    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="99"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="80"/>
+      <c r="D129" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E129" s="4"/>
+      <c r="F129" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G129" s="9"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A130" s="100"/>
+      <c r="B130" s="94"/>
+      <c r="C130" s="81"/>
+      <c r="D130" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G130" s="9"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="11"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="16"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="82" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="C132" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E132" s="5"/>
+      <c r="F132" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G132" s="9"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="6"/>
+    </row>
+    <row r="133" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="83"/>
+      <c r="B133" s="78"/>
+      <c r="C133" s="81"/>
+      <c r="D133" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G133" s="9"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="6"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="28"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="16"/>
+    </row>
+    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="82" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="C135" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G135" s="9"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="11"/>
+    </row>
+    <row r="136" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="83"/>
+      <c r="B136" s="78"/>
+      <c r="C136" s="81"/>
+      <c r="D136" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G136" s="9"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="66" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="28"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="16"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="B138" s="88"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="11"/>
+    </row>
+    <row r="139" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A139" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C139" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E139" s="10"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="11"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="28"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="16"/>
+    </row>
+    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="B141" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="C141" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G141" s="9"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="11"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="99"/>
+      <c r="B142" s="93"/>
+      <c r="C142" s="80"/>
+      <c r="D142" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E142" s="4"/>
+      <c r="F142" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G142" s="9"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="11"/>
+    </row>
+    <row r="143" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A143" s="100"/>
+      <c r="B143" s="94"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G143" s="9"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="11"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="28"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="16"/>
+    </row>
+    <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="B145" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="C145" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G145" s="9"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="11"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="99"/>
+      <c r="B146" s="93"/>
+      <c r="C146" s="80"/>
+      <c r="D146" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E146" s="4"/>
+      <c r="F146" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G146" s="9"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="11"/>
+    </row>
+    <row r="147" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A147" s="100"/>
+      <c r="B147" s="94"/>
+      <c r="C147" s="81"/>
+      <c r="D147" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G147" s="9"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="11"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="28"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="16"/>
+    </row>
+    <row r="149" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="98" t="s">
+        <v>286</v>
+      </c>
+      <c r="B149" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="C149" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G149" s="9"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="11"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="99"/>
+      <c r="B150" s="93"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E150" s="4"/>
+      <c r="F150" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G150" s="9"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="11"/>
+    </row>
+    <row r="151" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A151" s="100"/>
+      <c r="B151" s="94"/>
+      <c r="C151" s="81"/>
+      <c r="D151" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G151" s="9"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="11"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="28"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="16"/>
+    </row>
+    <row r="153" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="98" t="s">
+        <v>291</v>
+      </c>
+      <c r="B153" s="92" t="s">
+        <v>292</v>
+      </c>
+      <c r="C153" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G153" s="9"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="11"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="99"/>
+      <c r="B154" s="93"/>
+      <c r="C154" s="80"/>
+      <c r="D154" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G154" s="9"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="11"/>
+    </row>
+    <row r="155" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A155" s="100"/>
+      <c r="B155" s="94"/>
+      <c r="C155" s="81"/>
+      <c r="D155" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G155" s="9"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="11"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="28"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="68"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="16"/>
+    </row>
+    <row r="157" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A157" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C157" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E157" s="10"/>
+      <c r="F157" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="G157" s="9"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="11"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="28"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="16"/>
+    </row>
+    <row r="159" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A159" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="B159" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="C159" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E159" s="10"/>
+      <c r="F159" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="G159" s="9"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="11"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="28"/>
+      <c r="B160" s="28"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="14"/>
+      <c r="J160" s="16"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="87" t="s">
+        <v>301</v>
+      </c>
+      <c r="B161" s="88"/>
+      <c r="C161" s="67"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="11"/>
+    </row>
+    <row r="162" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A162" s="98" t="s">
+        <v>302</v>
+      </c>
+      <c r="B162" s="92" t="s">
+        <v>303</v>
+      </c>
+      <c r="C162" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F162" s="1"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="11"/>
+    </row>
+    <row r="163" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="100"/>
+      <c r="B163" s="94"/>
+      <c r="C163" s="81"/>
+      <c r="D163" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E163" s="4"/>
+      <c r="F163" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G163" s="9"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="11"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="28"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="14"/>
+      <c r="J164" s="16"/>
+    </row>
+    <row r="165" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="98" t="s">
+        <v>309</v>
+      </c>
+      <c r="B165" s="92" t="s">
+        <v>310</v>
+      </c>
+      <c r="C165" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="11"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="100"/>
+      <c r="B166" s="94"/>
+      <c r="C166" s="81"/>
+      <c r="D166" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G166" s="9"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="11"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="28"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="14"/>
+      <c r="J167" s="16"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="98" t="s">
+        <v>313</v>
+      </c>
+      <c r="B168" s="92" t="s">
+        <v>314</v>
+      </c>
+      <c r="C168" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F168" s="1"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="11"/>
+    </row>
+    <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="100"/>
+      <c r="B169" s="94"/>
+      <c r="C169" s="81"/>
+      <c r="D169" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E169" s="4"/>
+      <c r="F169" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G169" s="9"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="11"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="28"/>
+      <c r="B170" s="28"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="14"/>
+      <c r="J170" s="16"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="98" t="s">
+        <v>318</v>
+      </c>
+      <c r="B171" s="92" t="s">
+        <v>319</v>
+      </c>
+      <c r="C171" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F171" s="1"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="11"/>
+    </row>
+    <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="100"/>
+      <c r="B172" s="94"/>
+      <c r="C172" s="81"/>
+      <c r="D172" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E172" s="4"/>
+      <c r="F172" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G172" s="9"/>
+      <c r="H172" s="10"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="11"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="28"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="14"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="14"/>
+      <c r="I173" s="14"/>
+      <c r="J173" s="16"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="98" t="s">
+        <v>322</v>
+      </c>
+      <c r="B174" s="92" t="s">
+        <v>323</v>
+      </c>
+      <c r="C174" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E174" s="2"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="11"/>
+    </row>
+    <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="100"/>
+      <c r="B175" s="94"/>
+      <c r="C175" s="81"/>
+      <c r="D175" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E175" s="4"/>
+      <c r="F175" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G175" s="9"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="11"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="28"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14"/>
+      <c r="J176" s="16"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="98" t="s">
+        <v>326</v>
+      </c>
+      <c r="B177" s="92" t="s">
+        <v>327</v>
+      </c>
+      <c r="C177" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="11"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="100"/>
+      <c r="B178" s="94"/>
+      <c r="C178" s="81"/>
+      <c r="D178" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E178" s="4"/>
+      <c r="F178" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G178" s="9"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="11"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="28"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="14"/>
+      <c r="J179" s="16"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="98" t="s">
+        <v>330</v>
+      </c>
+      <c r="B180" s="92" t="s">
+        <v>331</v>
+      </c>
+      <c r="C180" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="11"/>
+    </row>
+    <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="100"/>
+      <c r="B181" s="94"/>
+      <c r="C181" s="81"/>
+      <c r="D181" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E181" s="4"/>
+      <c r="F181" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G181" s="9"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="11"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="28"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="14"/>
+      <c r="J182" s="16"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="B183" s="92" t="s">
+        <v>335</v>
+      </c>
+      <c r="C183" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="11"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="100"/>
+      <c r="B184" s="94"/>
+      <c r="C184" s="81"/>
+      <c r="D184" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E184" s="4"/>
+      <c r="F184" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G184" s="9"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="11"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="28"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="14"/>
+      <c r="J185" s="16"/>
+    </row>
+    <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="B186" s="92" t="s">
+        <v>338</v>
+      </c>
+      <c r="C186" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="11"/>
+    </row>
+    <row r="187" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="100"/>
+      <c r="B187" s="94"/>
+      <c r="C187" s="81"/>
+      <c r="D187" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E187" s="4"/>
+      <c r="F187" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G187" s="9"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="11"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="28"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="14"/>
+      <c r="I188" s="14"/>
+      <c r="J188" s="16"/>
+    </row>
+    <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="98" t="s">
+        <v>341</v>
+      </c>
+      <c r="B189" s="92" t="s">
+        <v>342</v>
+      </c>
+      <c r="C189" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E189" s="2"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="11"/>
+    </row>
+    <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="100"/>
+      <c r="B190" s="94"/>
+      <c r="C190" s="81"/>
+      <c r="D190" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E190" s="4"/>
+      <c r="F190" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G190" s="9"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="11"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="28"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="14"/>
+      <c r="J191" s="16"/>
+    </row>
+    <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="98" t="s">
+        <v>345</v>
+      </c>
+      <c r="B192" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C192" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E192" s="5"/>
+      <c r="F192" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G192" s="9"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="6"/>
+    </row>
+    <row r="193" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="100"/>
+      <c r="B193" s="78"/>
+      <c r="C193" s="81"/>
+      <c r="D193" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G193" s="9"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="6"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="28"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="14"/>
+      <c r="I194" s="14"/>
+      <c r="J194" s="16"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="26"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="67"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="18"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="11"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="26"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="67"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="18"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="11"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="26"/>
+      <c r="B197" s="26"/>
+      <c r="C197" s="67"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="18"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="11"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="26"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="67"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="18"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="11"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="26"/>
+      <c r="B199" s="26"/>
+      <c r="C199" s="67"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="18"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="11"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="26"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="67"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="18"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="11"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="26"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="67"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="18"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="11"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="26"/>
+      <c r="B202" s="26"/>
+      <c r="C202" s="67"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="11"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="26"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="67"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="18"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="11"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="26"/>
+      <c r="B204" s="26"/>
+      <c r="C204" s="67"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="10"/>
+      <c r="I204" s="10"/>
+      <c r="J204" s="11"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="26"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="67"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="18"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10"/>
+      <c r="J205" s="11"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="26"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="67"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="11"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="26"/>
+      <c r="B207" s="26"/>
+      <c r="C207" s="67"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="18"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="10"/>
+      <c r="I207" s="10"/>
+      <c r="J207" s="11"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="26"/>
+      <c r="B208" s="26"/>
+      <c r="C208" s="67"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="18"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="11"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="26"/>
+      <c r="B209" s="26"/>
+      <c r="C209" s="67"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="18"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="10"/>
+      <c r="I209" s="10"/>
+      <c r="J209" s="11"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="26"/>
+      <c r="B210" s="26"/>
+      <c r="C210" s="67"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="18"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="10"/>
+      <c r="I210" s="10"/>
+      <c r="J210" s="11"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="26"/>
+      <c r="B211" s="26"/>
+      <c r="C211" s="67"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="18"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="10"/>
+      <c r="I211" s="10"/>
+      <c r="J211" s="11"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="26"/>
+      <c r="B212" s="26"/>
+      <c r="C212" s="67"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="18"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="10"/>
+      <c r="I212" s="10"/>
+      <c r="J212" s="11"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="26"/>
+      <c r="B213" s="26"/>
+      <c r="C213" s="67"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="18"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="10"/>
+      <c r="I213" s="10"/>
+      <c r="J213" s="11"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="26"/>
+      <c r="B214" s="26"/>
+      <c r="C214" s="67"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="18"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="10"/>
+      <c r="I214" s="10"/>
+      <c r="J214" s="11"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="26"/>
+      <c r="B215" s="26"/>
+      <c r="C215" s="67"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="18"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="10"/>
+      <c r="I215" s="10"/>
+      <c r="J215" s="11"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="26"/>
+      <c r="B216" s="26"/>
+      <c r="C216" s="67"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="18"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="11"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="26"/>
+      <c r="B217" s="26"/>
+      <c r="C217" s="67"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="18"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="11"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="26"/>
+      <c r="B218" s="26"/>
+      <c r="C218" s="67"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="18"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="10"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="11"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="26"/>
+      <c r="B219" s="26"/>
+      <c r="C219" s="67"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="18"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10"/>
+      <c r="J219" s="11"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="26"/>
+      <c r="B220" s="26"/>
+      <c r="C220" s="67"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="18"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="10"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="11"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="26"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="67"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="18"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="11"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="26"/>
+      <c r="B222" s="26"/>
+      <c r="C222" s="67"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="18"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="11"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="26"/>
+      <c r="B223" s="26"/>
+      <c r="C223" s="67"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="18"/>
+      <c r="G223" s="9"/>
+      <c r="H223" s="10"/>
+      <c r="I223" s="10"/>
+      <c r="J223" s="11"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="26"/>
+      <c r="B224" s="26"/>
+      <c r="C224" s="67"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="18"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="10"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="11"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="26"/>
+      <c r="B225" s="26"/>
+      <c r="C225" s="67"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="18"/>
+      <c r="G225" s="9"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="11"/>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="26"/>
+      <c r="B226" s="26"/>
+      <c r="C226" s="67"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="18"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="11"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="26"/>
+      <c r="B227" s="26"/>
+      <c r="C227" s="67"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="18"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="10"/>
+      <c r="I227" s="10"/>
+      <c r="J227" s="11"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="26"/>
+      <c r="B228" s="26"/>
+      <c r="C228" s="67"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="18"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="10"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="11"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="26"/>
+      <c r="B229" s="26"/>
+      <c r="C229" s="67"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="18"/>
+      <c r="G229" s="9"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="11"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="26"/>
+      <c r="B230" s="26"/>
+      <c r="C230" s="67"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="18"/>
+      <c r="G230" s="9"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="11"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="26"/>
+      <c r="B231" s="26"/>
+      <c r="C231" s="67"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="18"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="11"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="26"/>
+      <c r="B232" s="26"/>
+      <c r="C232" s="67"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="18"/>
+      <c r="G232" s="9"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="11"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="26"/>
+      <c r="B233" s="26"/>
+      <c r="C233" s="67"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="18"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="11"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="26"/>
+      <c r="B234" s="26"/>
+      <c r="C234" s="67"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="18"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="10"/>
+      <c r="I234" s="10"/>
+      <c r="J234" s="11"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="26"/>
+      <c r="B235" s="26"/>
+      <c r="C235" s="67"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="18"/>
+      <c r="G235" s="9"/>
+      <c r="H235" s="10"/>
+      <c r="I235" s="10"/>
+      <c r="J235" s="11"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="26"/>
+      <c r="B236" s="26"/>
+      <c r="C236" s="67"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="10"/>
+      <c r="F236" s="18"/>
+      <c r="G236" s="9"/>
+      <c r="H236" s="10"/>
+      <c r="I236" s="10"/>
+      <c r="J236" s="11"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="26"/>
+      <c r="B237" s="26"/>
+      <c r="C237" s="67"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="18"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="10"/>
+      <c r="I237" s="10"/>
+      <c r="J237" s="11"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="26"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="67"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="10"/>
+      <c r="F238" s="18"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="10"/>
+      <c r="I238" s="10"/>
+      <c r="J238" s="11"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="26"/>
+      <c r="B239" s="26"/>
+      <c r="C239" s="67"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="18"/>
+      <c r="G239" s="9"/>
+      <c r="H239" s="10"/>
+      <c r="I239" s="10"/>
+      <c r="J239" s="11"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="26"/>
+      <c r="B240" s="26"/>
+      <c r="C240" s="67"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10"/>
+      <c r="F240" s="18"/>
+      <c r="G240" s="9"/>
+      <c r="H240" s="10"/>
+      <c r="I240" s="10"/>
+      <c r="J240" s="11"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="26"/>
+      <c r="B241" s="26"/>
+      <c r="C241" s="67"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="18"/>
+      <c r="G241" s="9"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="11"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="26"/>
+      <c r="B242" s="26"/>
+      <c r="C242" s="67"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="18"/>
+      <c r="G242" s="9"/>
+      <c r="H242" s="10"/>
+      <c r="I242" s="10"/>
+      <c r="J242" s="11"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="26"/>
+      <c r="B243" s="26"/>
+      <c r="C243" s="67"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="18"/>
+      <c r="G243" s="9"/>
+      <c r="H243" s="10"/>
+      <c r="I243" s="10"/>
+      <c r="J243" s="11"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="26"/>
+      <c r="B244" s="26"/>
+      <c r="C244" s="67"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="10"/>
+      <c r="F244" s="18"/>
+      <c r="G244" s="9"/>
+      <c r="H244" s="10"/>
+      <c r="I244" s="10"/>
+      <c r="J244" s="11"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="26"/>
+      <c r="B245" s="26"/>
+      <c r="C245" s="67"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="10"/>
+      <c r="F245" s="18"/>
+      <c r="G245" s="9"/>
+      <c r="H245" s="10"/>
+      <c r="I245" s="10"/>
+      <c r="J245" s="11"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="26"/>
+      <c r="B246" s="26"/>
+      <c r="C246" s="67"/>
+      <c r="D246" s="10"/>
+      <c r="E246" s="10"/>
+      <c r="F246" s="18"/>
+      <c r="G246" s="9"/>
+      <c r="H246" s="10"/>
+      <c r="I246" s="10"/>
+      <c r="J246" s="11"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="26"/>
+      <c r="B247" s="26"/>
+      <c r="C247" s="67"/>
+      <c r="D247" s="10"/>
+      <c r="E247" s="10"/>
+      <c r="F247" s="18"/>
+      <c r="G247" s="9"/>
+      <c r="H247" s="10"/>
+      <c r="I247" s="10"/>
+      <c r="J247" s="11"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="26"/>
+      <c r="B248" s="26"/>
+      <c r="C248" s="67"/>
+      <c r="D248" s="10"/>
+      <c r="E248" s="10"/>
+      <c r="F248" s="18"/>
+      <c r="G248" s="9"/>
+      <c r="H248" s="10"/>
+      <c r="I248" s="10"/>
+      <c r="J248" s="11"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="26"/>
+      <c r="B249" s="26"/>
+      <c r="C249" s="67"/>
+      <c r="D249" s="10"/>
+      <c r="E249" s="10"/>
+      <c r="F249" s="18"/>
+      <c r="G249" s="9"/>
+      <c r="H249" s="10"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="11"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="26"/>
+      <c r="B250" s="26"/>
+      <c r="C250" s="67"/>
+      <c r="D250" s="10"/>
+      <c r="E250" s="10"/>
+      <c r="F250" s="18"/>
+      <c r="G250" s="9"/>
+      <c r="H250" s="10"/>
+      <c r="I250" s="10"/>
+      <c r="J250" s="11"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="26"/>
+      <c r="B251" s="26"/>
+      <c r="C251" s="67"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="10"/>
+      <c r="F251" s="18"/>
+      <c r="G251" s="9"/>
+      <c r="H251" s="10"/>
+      <c r="I251" s="10"/>
+      <c r="J251" s="11"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="26"/>
+      <c r="B252" s="26"/>
+      <c r="C252" s="67"/>
+      <c r="D252" s="10"/>
+      <c r="E252" s="10"/>
+      <c r="F252" s="18"/>
+      <c r="G252" s="9"/>
+      <c r="H252" s="10"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="11"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="26"/>
+      <c r="B253" s="26"/>
+      <c r="C253" s="67"/>
+      <c r="D253" s="10"/>
+      <c r="E253" s="10"/>
+      <c r="F253" s="18"/>
+      <c r="G253" s="9"/>
+      <c r="H253" s="10"/>
+      <c r="I253" s="10"/>
+      <c r="J253" s="11"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="26"/>
+      <c r="B254" s="26"/>
+      <c r="C254" s="67"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="10"/>
+      <c r="F254" s="18"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="10"/>
+      <c r="I254" s="10"/>
+      <c r="J254" s="11"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
+      <c r="C255" s="67"/>
+      <c r="D255" s="10"/>
+      <c r="E255" s="10"/>
+      <c r="F255" s="18"/>
+      <c r="G255" s="9"/>
+      <c r="H255" s="10"/>
+      <c r="I255" s="10"/>
+      <c r="J255" s="11"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="26"/>
+      <c r="B256" s="26"/>
+      <c r="C256" s="67"/>
+      <c r="D256" s="10"/>
+      <c r="E256" s="10"/>
+      <c r="F256" s="18"/>
+      <c r="G256" s="9"/>
+      <c r="H256" s="10"/>
+      <c r="I256" s="10"/>
+      <c r="J256" s="11"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="26"/>
+      <c r="B257" s="26"/>
+      <c r="C257" s="67"/>
+      <c r="D257" s="10"/>
+      <c r="E257" s="10"/>
+      <c r="F257" s="18"/>
+      <c r="G257" s="9"/>
+      <c r="H257" s="10"/>
+      <c r="I257" s="10"/>
+      <c r="J257" s="11"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="26"/>
+      <c r="B258" s="26"/>
+      <c r="C258" s="67"/>
+      <c r="D258" s="10"/>
+      <c r="E258" s="10"/>
+      <c r="F258" s="18"/>
+      <c r="G258" s="9"/>
+      <c r="H258" s="10"/>
+      <c r="I258" s="10"/>
+      <c r="J258" s="11"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="26"/>
+      <c r="B259" s="26"/>
+      <c r="C259" s="67"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="10"/>
+      <c r="F259" s="18"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="10"/>
+      <c r="I259" s="10"/>
+      <c r="J259" s="11"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="26"/>
+      <c r="B260" s="26"/>
+      <c r="C260" s="67"/>
+      <c r="D260" s="10"/>
+      <c r="E260" s="10"/>
+      <c r="F260" s="18"/>
+      <c r="G260" s="9"/>
+      <c r="H260" s="10"/>
+      <c r="I260" s="10"/>
+      <c r="J260" s="11"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="26"/>
+      <c r="B261" s="26"/>
+      <c r="C261" s="67"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="10"/>
+      <c r="F261" s="18"/>
+      <c r="G261" s="9"/>
+      <c r="H261" s="10"/>
+      <c r="I261" s="10"/>
+      <c r="J261" s="11"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="26"/>
+      <c r="B262" s="26"/>
+      <c r="C262" s="67"/>
+      <c r="D262" s="10"/>
+      <c r="E262" s="10"/>
+      <c r="F262" s="18"/>
+      <c r="G262" s="9"/>
+      <c r="H262" s="10"/>
+      <c r="I262" s="10"/>
+      <c r="J262" s="11"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="26"/>
+      <c r="B263" s="26"/>
+      <c r="C263" s="67"/>
+      <c r="D263" s="10"/>
+      <c r="E263" s="10"/>
+      <c r="F263" s="18"/>
+      <c r="G263" s="9"/>
+      <c r="H263" s="10"/>
+      <c r="I263" s="10"/>
+      <c r="J263" s="11"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="26"/>
+      <c r="B264" s="26"/>
+      <c r="C264" s="67"/>
+      <c r="D264" s="10"/>
+      <c r="E264" s="10"/>
+      <c r="F264" s="18"/>
+      <c r="G264" s="9"/>
+      <c r="H264" s="10"/>
+      <c r="I264" s="10"/>
+      <c r="J264" s="11"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="26"/>
+      <c r="B265" s="26"/>
+      <c r="C265" s="67"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="18"/>
+      <c r="G265" s="9"/>
+      <c r="H265" s="10"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="11"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="26"/>
+      <c r="B266" s="26"/>
+      <c r="C266" s="67"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="18"/>
+      <c r="G266" s="9"/>
+      <c r="H266" s="10"/>
+      <c r="I266" s="10"/>
+      <c r="J266" s="11"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="26"/>
+      <c r="B267" s="26"/>
+      <c r="C267" s="67"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="18"/>
+      <c r="G267" s="9"/>
+      <c r="H267" s="10"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="11"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="26"/>
+      <c r="B268" s="26"/>
+      <c r="C268" s="67"/>
+      <c r="D268" s="10"/>
+      <c r="E268" s="10"/>
+      <c r="F268" s="18"/>
+      <c r="G268" s="9"/>
+      <c r="H268" s="10"/>
+      <c r="I268" s="10"/>
+      <c r="J268" s="11"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" s="26"/>
+      <c r="B269" s="26"/>
+      <c r="C269" s="67"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="18"/>
+      <c r="G269" s="9"/>
+      <c r="H269" s="10"/>
+      <c r="I269" s="10"/>
+      <c r="J269" s="11"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="26"/>
+      <c r="B270" s="26"/>
+      <c r="C270" s="67"/>
+      <c r="D270" s="10"/>
+      <c r="E270" s="10"/>
+      <c r="F270" s="18"/>
+      <c r="G270" s="9"/>
+      <c r="H270" s="10"/>
+      <c r="I270" s="10"/>
+      <c r="J270" s="11"/>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" s="26"/>
+      <c r="B271" s="26"/>
+      <c r="C271" s="67"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="18"/>
+      <c r="G271" s="9"/>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="11"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" s="26"/>
+      <c r="B272" s="26"/>
+      <c r="C272" s="67"/>
+      <c r="D272" s="10"/>
+      <c r="E272" s="10"/>
+      <c r="F272" s="18"/>
+      <c r="G272" s="9"/>
+      <c r="H272" s="10"/>
+      <c r="I272" s="10"/>
+      <c r="J272" s="11"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="26"/>
+      <c r="B273" s="26"/>
+      <c r="C273" s="67"/>
+      <c r="D273" s="10"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="18"/>
+      <c r="G273" s="9"/>
+      <c r="H273" s="10"/>
+      <c r="I273" s="10"/>
+      <c r="J273" s="11"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="26"/>
+      <c r="B274" s="26"/>
+      <c r="C274" s="67"/>
+      <c r="D274" s="10"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="18"/>
+      <c r="G274" s="9"/>
+      <c r="H274" s="10"/>
+      <c r="I274" s="10"/>
+      <c r="J274" s="11"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" s="26"/>
+      <c r="B275" s="26"/>
+      <c r="C275" s="67"/>
+      <c r="D275" s="10"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="18"/>
+      <c r="G275" s="9"/>
+      <c r="H275" s="10"/>
+      <c r="I275" s="10"/>
+      <c r="J275" s="11"/>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="26"/>
+      <c r="B276" s="26"/>
+      <c r="C276" s="67"/>
+      <c r="D276" s="10"/>
+      <c r="E276" s="10"/>
+      <c r="F276" s="18"/>
+      <c r="G276" s="9"/>
+      <c r="H276" s="10"/>
+      <c r="I276" s="10"/>
+      <c r="J276" s="11"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="26"/>
+      <c r="B277" s="26"/>
+      <c r="C277" s="67"/>
+      <c r="D277" s="10"/>
+      <c r="E277" s="10"/>
+      <c r="F277" s="18"/>
+      <c r="G277" s="9"/>
+      <c r="H277" s="10"/>
+      <c r="I277" s="10"/>
+      <c r="J277" s="11"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="26"/>
+      <c r="B278" s="26"/>
+      <c r="C278" s="67"/>
+      <c r="D278" s="10"/>
+      <c r="E278" s="10"/>
+      <c r="F278" s="18"/>
+      <c r="G278" s="9"/>
+      <c r="H278" s="10"/>
+      <c r="I278" s="10"/>
+      <c r="J278" s="11"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="26"/>
+      <c r="B279" s="26"/>
+      <c r="C279" s="67"/>
+      <c r="D279" s="10"/>
+      <c r="E279" s="10"/>
+      <c r="F279" s="18"/>
+      <c r="G279" s="9"/>
+      <c r="H279" s="10"/>
+      <c r="I279" s="10"/>
+      <c r="J279" s="11"/>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="26"/>
+      <c r="B280" s="26"/>
+      <c r="C280" s="67"/>
+      <c r="D280" s="10"/>
+      <c r="E280" s="10"/>
+      <c r="F280" s="18"/>
+      <c r="G280" s="9"/>
+      <c r="H280" s="10"/>
+      <c r="I280" s="10"/>
+      <c r="J280" s="11"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="26"/>
+      <c r="B281" s="26"/>
+      <c r="C281" s="67"/>
+      <c r="D281" s="10"/>
+      <c r="E281" s="10"/>
+      <c r="F281" s="18"/>
+      <c r="G281" s="9"/>
+      <c r="H281" s="10"/>
+      <c r="I281" s="10"/>
+      <c r="J281" s="11"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" s="26"/>
+      <c r="B282" s="26"/>
+      <c r="C282" s="67"/>
+      <c r="D282" s="10"/>
+      <c r="E282" s="10"/>
+      <c r="F282" s="18"/>
+      <c r="G282" s="9"/>
+      <c r="H282" s="10"/>
+      <c r="I282" s="10"/>
+      <c r="J282" s="11"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" s="26"/>
+      <c r="B283" s="26"/>
+      <c r="C283" s="67"/>
+      <c r="D283" s="10"/>
+      <c r="E283" s="10"/>
+      <c r="F283" s="18"/>
+      <c r="G283" s="9"/>
+      <c r="H283" s="10"/>
+      <c r="I283" s="10"/>
+      <c r="J283" s="11"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="26"/>
+      <c r="B284" s="26"/>
+      <c r="C284" s="67"/>
+      <c r="D284" s="10"/>
+      <c r="E284" s="10"/>
+      <c r="F284" s="18"/>
+      <c r="G284" s="9"/>
+      <c r="H284" s="10"/>
+      <c r="I284" s="10"/>
+      <c r="J284" s="11"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="26"/>
+      <c r="B285" s="26"/>
+      <c r="C285" s="67"/>
+      <c r="D285" s="10"/>
+      <c r="E285" s="10"/>
+      <c r="F285" s="18"/>
+      <c r="G285" s="9"/>
+      <c r="H285" s="10"/>
+      <c r="I285" s="10"/>
+      <c r="J285" s="11"/>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="26"/>
+      <c r="B286" s="26"/>
+      <c r="C286" s="67"/>
+      <c r="D286" s="10"/>
+      <c r="E286" s="10"/>
+      <c r="F286" s="18"/>
+      <c r="G286" s="9"/>
+      <c r="H286" s="10"/>
+      <c r="I286" s="10"/>
+      <c r="J286" s="11"/>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" s="26"/>
+      <c r="B287" s="26"/>
+      <c r="C287" s="67"/>
+      <c r="D287" s="10"/>
+      <c r="E287" s="10"/>
+      <c r="F287" s="18"/>
+      <c r="G287" s="9"/>
+      <c r="H287" s="10"/>
+      <c r="I287" s="10"/>
+      <c r="J287" s="11"/>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" s="26"/>
+      <c r="B288" s="26"/>
+      <c r="C288" s="67"/>
+      <c r="D288" s="10"/>
+      <c r="E288" s="10"/>
+      <c r="F288" s="18"/>
+      <c r="G288" s="9"/>
+      <c r="H288" s="10"/>
+      <c r="I288" s="10"/>
+      <c r="J288" s="11"/>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="26"/>
+      <c r="B289" s="26"/>
+      <c r="C289" s="67"/>
+      <c r="D289" s="10"/>
+      <c r="E289" s="10"/>
+      <c r="F289" s="18"/>
+      <c r="G289" s="9"/>
+      <c r="H289" s="10"/>
+      <c r="I289" s="10"/>
+      <c r="J289" s="11"/>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" s="26"/>
+      <c r="B290" s="26"/>
+      <c r="C290" s="67"/>
+      <c r="D290" s="10"/>
+      <c r="E290" s="10"/>
+      <c r="F290" s="18"/>
+      <c r="G290" s="9"/>
+      <c r="H290" s="10"/>
+      <c r="I290" s="10"/>
+      <c r="J290" s="11"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="26"/>
+      <c r="B291" s="26"/>
+      <c r="C291" s="67"/>
+      <c r="D291" s="10"/>
+      <c r="E291" s="10"/>
+      <c r="F291" s="18"/>
+      <c r="G291" s="9"/>
+      <c r="H291" s="10"/>
+      <c r="I291" s="10"/>
+      <c r="J291" s="11"/>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="26"/>
+      <c r="B292" s="26"/>
+      <c r="C292" s="67"/>
+      <c r="D292" s="10"/>
+      <c r="E292" s="10"/>
+      <c r="F292" s="18"/>
+      <c r="G292" s="9"/>
+      <c r="H292" s="10"/>
+      <c r="I292" s="10"/>
+      <c r="J292" s="11"/>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="26"/>
+      <c r="B293" s="26"/>
+      <c r="C293" s="67"/>
+      <c r="D293" s="10"/>
+      <c r="E293" s="10"/>
+      <c r="F293" s="18"/>
+      <c r="G293" s="9"/>
+      <c r="H293" s="10"/>
+      <c r="I293" s="10"/>
+      <c r="J293" s="11"/>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="26"/>
+      <c r="B294" s="26"/>
+      <c r="C294" s="67"/>
+      <c r="D294" s="10"/>
+      <c r="E294" s="10"/>
+      <c r="F294" s="18"/>
+      <c r="G294" s="9"/>
+      <c r="H294" s="10"/>
+      <c r="I294" s="10"/>
+      <c r="J294" s="11"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="26"/>
+      <c r="B295" s="26"/>
+      <c r="C295" s="67"/>
+      <c r="D295" s="10"/>
+      <c r="E295" s="10"/>
+      <c r="F295" s="18"/>
+      <c r="G295" s="9"/>
+      <c r="H295" s="10"/>
+      <c r="I295" s="10"/>
+      <c r="J295" s="11"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="26"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="67"/>
+      <c r="D296" s="10"/>
+      <c r="E296" s="10"/>
+      <c r="F296" s="18"/>
+      <c r="G296" s="9"/>
+      <c r="H296" s="10"/>
+      <c r="I296" s="10"/>
+      <c r="J296" s="11"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" s="26"/>
+      <c r="B297" s="26"/>
+      <c r="C297" s="67"/>
+      <c r="D297" s="10"/>
+      <c r="E297" s="10"/>
+      <c r="F297" s="18"/>
+      <c r="G297" s="9"/>
+      <c r="H297" s="10"/>
+      <c r="I297" s="10"/>
+      <c r="J297" s="11"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="26"/>
+      <c r="B298" s="26"/>
+      <c r="C298" s="67"/>
+      <c r="D298" s="10"/>
+      <c r="E298" s="10"/>
+      <c r="F298" s="18"/>
+      <c r="G298" s="9"/>
+      <c r="H298" s="10"/>
+      <c r="I298" s="10"/>
+      <c r="J298" s="11"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" s="26"/>
+      <c r="B299" s="26"/>
+      <c r="C299" s="67"/>
+      <c r="D299" s="10"/>
+      <c r="E299" s="10"/>
+      <c r="F299" s="18"/>
+      <c r="G299" s="9"/>
+      <c r="H299" s="10"/>
+      <c r="I299" s="10"/>
+      <c r="J299" s="11"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="26"/>
+      <c r="B300" s="26"/>
+      <c r="C300" s="10"/>
+      <c r="D300" s="10"/>
+      <c r="E300" s="10"/>
+      <c r="F300" s="18"/>
+      <c r="G300" s="9"/>
+      <c r="H300" s="10"/>
+      <c r="I300" s="10"/>
+      <c r="J300" s="11"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" s="26"/>
+      <c r="B301" s="26"/>
+      <c r="C301" s="10"/>
+      <c r="D301" s="10"/>
+      <c r="E301" s="10"/>
+      <c r="F301" s="18"/>
+      <c r="G301" s="9"/>
+      <c r="H301" s="10"/>
+      <c r="I301" s="10"/>
+      <c r="J301" s="11"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="26"/>
+      <c r="B302" s="26"/>
+      <c r="C302" s="10"/>
+      <c r="D302" s="10"/>
+      <c r="E302" s="10"/>
+      <c r="F302" s="18"/>
+      <c r="G302" s="9"/>
+      <c r="H302" s="10"/>
+      <c r="I302" s="10"/>
+      <c r="J302" s="11"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="26"/>
+      <c r="B303" s="26"/>
+      <c r="C303" s="10"/>
+      <c r="D303" s="10"/>
+      <c r="E303" s="10"/>
+      <c r="F303" s="18"/>
+      <c r="G303" s="9"/>
+      <c r="H303" s="10"/>
+      <c r="I303" s="10"/>
+      <c r="J303" s="11"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" s="26"/>
+      <c r="B304" s="26"/>
+      <c r="C304" s="10"/>
+      <c r="D304" s="10"/>
+      <c r="E304" s="10"/>
+      <c r="F304" s="18"/>
+      <c r="G304" s="9"/>
+      <c r="H304" s="10"/>
+      <c r="I304" s="10"/>
+      <c r="J304" s="11"/>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="26"/>
+      <c r="B305" s="26"/>
+      <c r="C305" s="10"/>
+      <c r="D305" s="10"/>
+      <c r="E305" s="10"/>
+      <c r="F305" s="18"/>
+      <c r="G305" s="9"/>
+      <c r="H305" s="10"/>
+      <c r="I305" s="10"/>
+      <c r="J305" s="11"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="26"/>
+      <c r="B306" s="26"/>
+      <c r="C306" s="10"/>
+      <c r="D306" s="10"/>
+      <c r="E306" s="10"/>
+      <c r="F306" s="18"/>
+      <c r="G306" s="9"/>
+      <c r="H306" s="10"/>
+      <c r="I306" s="10"/>
+      <c r="J306" s="11"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="26"/>
+      <c r="B307" s="26"/>
+      <c r="C307" s="10"/>
+      <c r="D307" s="10"/>
+      <c r="E307" s="10"/>
+      <c r="F307" s="18"/>
+      <c r="G307" s="9"/>
+      <c r="H307" s="10"/>
+      <c r="I307" s="10"/>
+      <c r="J307" s="11"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" s="26"/>
+      <c r="B308" s="26"/>
+      <c r="C308" s="10"/>
+      <c r="D308" s="10"/>
+      <c r="E308" s="10"/>
+      <c r="F308" s="18"/>
+      <c r="G308" s="9"/>
+      <c r="H308" s="10"/>
+      <c r="I308" s="10"/>
+      <c r="J308" s="11"/>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="26"/>
+      <c r="B309" s="26"/>
+      <c r="C309" s="10"/>
+      <c r="D309" s="10"/>
+      <c r="E309" s="10"/>
+      <c r="F309" s="18"/>
+      <c r="G309" s="9"/>
+      <c r="H309" s="10"/>
+      <c r="I309" s="10"/>
+      <c r="J309" s="11"/>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" s="26"/>
+      <c r="B310" s="26"/>
+      <c r="C310" s="10"/>
+      <c r="D310" s="10"/>
+      <c r="E310" s="10"/>
+      <c r="F310" s="18"/>
+      <c r="G310" s="9"/>
+      <c r="H310" s="10"/>
+      <c r="I310" s="10"/>
+      <c r="J310" s="11"/>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" s="26"/>
+      <c r="B311" s="26"/>
+      <c r="C311" s="10"/>
+      <c r="D311" s="10"/>
+      <c r="E311" s="10"/>
+      <c r="F311" s="18"/>
+      <c r="G311" s="9"/>
+      <c r="H311" s="10"/>
+      <c r="I311" s="10"/>
+      <c r="J311" s="11"/>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" s="26"/>
+      <c r="B312" s="26"/>
+      <c r="C312" s="10"/>
+      <c r="D312" s="10"/>
+      <c r="E312" s="10"/>
+      <c r="F312" s="18"/>
+      <c r="G312" s="9"/>
+      <c r="H312" s="10"/>
+      <c r="I312" s="10"/>
+      <c r="J312" s="11"/>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" s="26"/>
+      <c r="B313" s="26"/>
+      <c r="C313" s="10"/>
+      <c r="D313" s="10"/>
+      <c r="E313" s="10"/>
+      <c r="F313" s="18"/>
+      <c r="G313" s="9"/>
+      <c r="H313" s="10"/>
+      <c r="I313" s="10"/>
+      <c r="J313" s="11"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" s="26"/>
+      <c r="B314" s="26"/>
+      <c r="C314" s="10"/>
+      <c r="D314" s="10"/>
+      <c r="E314" s="10"/>
+      <c r="F314" s="18"/>
+      <c r="G314" s="9"/>
+      <c r="H314" s="10"/>
+      <c r="I314" s="10"/>
+      <c r="J314" s="11"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" s="26"/>
+      <c r="B315" s="26"/>
+      <c r="C315" s="10"/>
+      <c r="D315" s="10"/>
+      <c r="E315" s="10"/>
+      <c r="F315" s="18"/>
+      <c r="G315" s="9"/>
+      <c r="H315" s="10"/>
+      <c r="I315" s="10"/>
+      <c r="J315" s="11"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" s="26"/>
+      <c r="B316" s="26"/>
+      <c r="C316" s="10"/>
+      <c r="D316" s="10"/>
+      <c r="E316" s="10"/>
+      <c r="F316" s="18"/>
+      <c r="G316" s="9"/>
+      <c r="H316" s="10"/>
+      <c r="I316" s="10"/>
+      <c r="J316" s="11"/>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" s="26"/>
+      <c r="B317" s="26"/>
+      <c r="C317" s="10"/>
+      <c r="D317" s="10"/>
+      <c r="E317" s="10"/>
+      <c r="F317" s="18"/>
+      <c r="G317" s="9"/>
+      <c r="H317" s="10"/>
+      <c r="I317" s="10"/>
+      <c r="J317" s="11"/>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" s="26"/>
+      <c r="B318" s="26"/>
+      <c r="C318" s="10"/>
+      <c r="D318" s="10"/>
+      <c r="E318" s="10"/>
+      <c r="F318" s="18"/>
+      <c r="G318" s="9"/>
+      <c r="H318" s="10"/>
+      <c r="I318" s="10"/>
+      <c r="J318" s="11"/>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" s="26"/>
+      <c r="B319" s="26"/>
+      <c r="C319" s="10"/>
+      <c r="D319" s="10"/>
+      <c r="E319" s="10"/>
+      <c r="F319" s="18"/>
+      <c r="G319" s="9"/>
+      <c r="H319" s="10"/>
+      <c r="I319" s="10"/>
+      <c r="J319" s="11"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" s="26"/>
+      <c r="B320" s="26"/>
+      <c r="C320" s="10"/>
+      <c r="D320" s="10"/>
+      <c r="E320" s="10"/>
+      <c r="F320" s="18"/>
+      <c r="G320" s="9"/>
+      <c r="H320" s="10"/>
+      <c r="I320" s="10"/>
+      <c r="J320" s="11"/>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" s="26"/>
+      <c r="B321" s="26"/>
+      <c r="C321" s="10"/>
+      <c r="D321" s="10"/>
+      <c r="E321" s="10"/>
+      <c r="F321" s="18"/>
+      <c r="G321" s="9"/>
+      <c r="H321" s="10"/>
+      <c r="I321" s="10"/>
+      <c r="J321" s="11"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="26"/>
+      <c r="B322" s="26"/>
+      <c r="C322" s="10"/>
+      <c r="D322" s="10"/>
+      <c r="E322" s="10"/>
+      <c r="F322" s="18"/>
+      <c r="G322" s="9"/>
+      <c r="H322" s="10"/>
+      <c r="I322" s="10"/>
+      <c r="J322" s="11"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="26"/>
+      <c r="B323" s="26"/>
+      <c r="C323" s="10"/>
+      <c r="D323" s="10"/>
+      <c r="E323" s="10"/>
+      <c r="F323" s="18"/>
+      <c r="G323" s="9"/>
+      <c r="H323" s="10"/>
+      <c r="I323" s="10"/>
+      <c r="J323" s="11"/>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" s="26"/>
+      <c r="B324" s="26"/>
+      <c r="C324" s="10"/>
+      <c r="D324" s="10"/>
+      <c r="E324" s="10"/>
+      <c r="F324" s="18"/>
+      <c r="G324" s="9"/>
+      <c r="H324" s="10"/>
+      <c r="I324" s="10"/>
+      <c r="J324" s="11"/>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" s="26"/>
+      <c r="B325" s="26"/>
+      <c r="C325" s="10"/>
+      <c r="D325" s="10"/>
+      <c r="E325" s="10"/>
+      <c r="F325" s="18"/>
+      <c r="G325" s="9"/>
+      <c r="H325" s="10"/>
+      <c r="I325" s="10"/>
+      <c r="J325" s="11"/>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" s="26"/>
+      <c r="B326" s="26"/>
+      <c r="C326" s="10"/>
+      <c r="D326" s="10"/>
+      <c r="E326" s="10"/>
+      <c r="F326" s="18"/>
+      <c r="G326" s="9"/>
+      <c r="H326" s="10"/>
+      <c r="I326" s="10"/>
+      <c r="J326" s="11"/>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" s="26"/>
+      <c r="B327" s="26"/>
+      <c r="C327" s="10"/>
+      <c r="D327" s="10"/>
+      <c r="E327" s="10"/>
+      <c r="F327" s="18"/>
+      <c r="G327" s="9"/>
+      <c r="H327" s="10"/>
+      <c r="I327" s="10"/>
+      <c r="J327" s="11"/>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" s="26"/>
+      <c r="B328" s="26"/>
+      <c r="C328" s="10"/>
+      <c r="D328" s="10"/>
+      <c r="E328" s="10"/>
+      <c r="F328" s="18"/>
+      <c r="G328" s="9"/>
+      <c r="H328" s="10"/>
+      <c r="I328" s="10"/>
+      <c r="J328" s="11"/>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" s="26"/>
+      <c r="B329" s="26"/>
+      <c r="C329" s="10"/>
+      <c r="D329" s="10"/>
+      <c r="E329" s="10"/>
+      <c r="F329" s="18"/>
+      <c r="G329" s="9"/>
+      <c r="H329" s="10"/>
+      <c r="I329" s="10"/>
+      <c r="J329" s="11"/>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" s="26"/>
+      <c r="B330" s="26"/>
+      <c r="C330" s="10"/>
+      <c r="D330" s="10"/>
+      <c r="E330" s="10"/>
+      <c r="F330" s="18"/>
+      <c r="G330" s="9"/>
+      <c r="H330" s="10"/>
+      <c r="I330" s="10"/>
+      <c r="J330" s="11"/>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" s="26"/>
+      <c r="B331" s="26"/>
+      <c r="C331" s="10"/>
+      <c r="D331" s="10"/>
+      <c r="E331" s="10"/>
+      <c r="F331" s="18"/>
+      <c r="G331" s="9"/>
+      <c r="H331" s="10"/>
+      <c r="I331" s="10"/>
+      <c r="J331" s="11"/>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" s="26"/>
+      <c r="B332" s="26"/>
+      <c r="C332" s="10"/>
+      <c r="D332" s="10"/>
+      <c r="E332" s="10"/>
+      <c r="F332" s="18"/>
+      <c r="G332" s="9"/>
+      <c r="H332" s="10"/>
+      <c r="I332" s="10"/>
+      <c r="J332" s="11"/>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" s="26"/>
+      <c r="B333" s="26"/>
+      <c r="C333" s="10"/>
+      <c r="D333" s="10"/>
+      <c r="E333" s="10"/>
+      <c r="F333" s="18"/>
+      <c r="G333" s="9"/>
+      <c r="H333" s="10"/>
+      <c r="I333" s="10"/>
+      <c r="J333" s="11"/>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" s="26"/>
+      <c r="B334" s="26"/>
+      <c r="C334" s="10"/>
+      <c r="D334" s="10"/>
+      <c r="E334" s="10"/>
+      <c r="F334" s="18"/>
+      <c r="G334" s="9"/>
+      <c r="H334" s="10"/>
+      <c r="I334" s="10"/>
+      <c r="J334" s="11"/>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" s="26"/>
+      <c r="B335" s="26"/>
+      <c r="C335" s="10"/>
+      <c r="D335" s="10"/>
+      <c r="E335" s="10"/>
+      <c r="F335" s="18"/>
+      <c r="G335" s="9"/>
+      <c r="H335" s="10"/>
+      <c r="I335" s="10"/>
+      <c r="J335" s="11"/>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" s="26"/>
+      <c r="B336" s="26"/>
+      <c r="C336" s="10"/>
+      <c r="D336" s="10"/>
+      <c r="E336" s="10"/>
+      <c r="F336" s="18"/>
+      <c r="G336" s="9"/>
+      <c r="H336" s="10"/>
+      <c r="I336" s="10"/>
+      <c r="J336" s="11"/>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="26"/>
+      <c r="B337" s="26"/>
+      <c r="C337" s="10"/>
+      <c r="D337" s="10"/>
+      <c r="E337" s="10"/>
+      <c r="F337" s="18"/>
+      <c r="G337" s="9"/>
+      <c r="H337" s="10"/>
+      <c r="I337" s="10"/>
+      <c r="J337" s="11"/>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="26"/>
+      <c r="B338" s="26"/>
+      <c r="C338" s="10"/>
+      <c r="D338" s="10"/>
+      <c r="E338" s="10"/>
+      <c r="F338" s="18"/>
+      <c r="G338" s="9"/>
+      <c r="H338" s="10"/>
+      <c r="I338" s="10"/>
+      <c r="J338" s="11"/>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="26"/>
+      <c r="B339" s="26"/>
+      <c r="C339" s="10"/>
+      <c r="D339" s="10"/>
+      <c r="E339" s="10"/>
+      <c r="F339" s="18"/>
+      <c r="G339" s="9"/>
+      <c r="H339" s="10"/>
+      <c r="I339" s="10"/>
+      <c r="J339" s="11"/>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="26"/>
+      <c r="B340" s="26"/>
+      <c r="C340" s="10"/>
+      <c r="D340" s="10"/>
+      <c r="E340" s="10"/>
+      <c r="F340" s="18"/>
+      <c r="G340" s="9"/>
+      <c r="H340" s="10"/>
+      <c r="I340" s="10"/>
+      <c r="J340" s="11"/>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="26"/>
+      <c r="B341" s="26"/>
+      <c r="C341" s="10"/>
+      <c r="D341" s="10"/>
+      <c r="E341" s="10"/>
+      <c r="F341" s="18"/>
+      <c r="G341" s="9"/>
+      <c r="H341" s="10"/>
+      <c r="I341" s="10"/>
+      <c r="J341" s="11"/>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="26"/>
+      <c r="B342" s="26"/>
+      <c r="C342" s="10"/>
+      <c r="D342" s="10"/>
+      <c r="E342" s="10"/>
+      <c r="F342" s="18"/>
+      <c r="G342" s="9"/>
+      <c r="H342" s="10"/>
+      <c r="I342" s="10"/>
+      <c r="J342" s="11"/>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="26"/>
+      <c r="B343" s="26"/>
+      <c r="C343" s="10"/>
+      <c r="D343" s="10"/>
+      <c r="E343" s="10"/>
+      <c r="F343" s="18"/>
+      <c r="G343" s="9"/>
+      <c r="H343" s="10"/>
+      <c r="I343" s="10"/>
+      <c r="J343" s="11"/>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="26"/>
+      <c r="B344" s="26"/>
+      <c r="C344" s="10"/>
+      <c r="D344" s="10"/>
+      <c r="E344" s="10"/>
+      <c r="F344" s="18"/>
+      <c r="G344" s="9"/>
+      <c r="H344" s="10"/>
+      <c r="I344" s="10"/>
+      <c r="J344" s="11"/>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="26"/>
+      <c r="B345" s="26"/>
+      <c r="C345" s="10"/>
+      <c r="D345" s="10"/>
+      <c r="E345" s="10"/>
+      <c r="F345" s="18"/>
+      <c r="G345" s="9"/>
+      <c r="H345" s="10"/>
+      <c r="I345" s="10"/>
+      <c r="J345" s="11"/>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="26"/>
+      <c r="B346" s="26"/>
+      <c r="C346" s="10"/>
+      <c r="D346" s="10"/>
+      <c r="E346" s="10"/>
+      <c r="F346" s="18"/>
+      <c r="G346" s="9"/>
+      <c r="H346" s="10"/>
+      <c r="I346" s="10"/>
+      <c r="J346" s="11"/>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="26"/>
+      <c r="B347" s="26"/>
+      <c r="C347" s="10"/>
+      <c r="D347" s="10"/>
+      <c r="E347" s="10"/>
+      <c r="F347" s="18"/>
+      <c r="G347" s="9"/>
+      <c r="H347" s="10"/>
+      <c r="I347" s="10"/>
+      <c r="J347" s="11"/>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="26"/>
+      <c r="B348" s="26"/>
+      <c r="C348" s="10"/>
+      <c r="D348" s="10"/>
+      <c r="E348" s="10"/>
+      <c r="F348" s="18"/>
+      <c r="G348" s="9"/>
+      <c r="H348" s="10"/>
+      <c r="I348" s="10"/>
+      <c r="J348" s="11"/>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="26"/>
+      <c r="B349" s="26"/>
+      <c r="C349" s="10"/>
+      <c r="D349" s="10"/>
+      <c r="E349" s="10"/>
+      <c r="F349" s="18"/>
+      <c r="G349" s="9"/>
+      <c r="H349" s="10"/>
+      <c r="I349" s="10"/>
+      <c r="J349" s="11"/>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" s="26"/>
+      <c r="B350" s="26"/>
+      <c r="C350" s="10"/>
+      <c r="D350" s="10"/>
+      <c r="E350" s="10"/>
+      <c r="F350" s="18"/>
+      <c r="G350" s="9"/>
+      <c r="H350" s="10"/>
+      <c r="I350" s="10"/>
+      <c r="J350" s="11"/>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" s="26"/>
+      <c r="B351" s="26"/>
+      <c r="C351" s="10"/>
+      <c r="D351" s="10"/>
+      <c r="E351" s="10"/>
+      <c r="F351" s="18"/>
+      <c r="G351" s="9"/>
+      <c r="H351" s="10"/>
+      <c r="I351" s="10"/>
+      <c r="J351" s="11"/>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" s="26"/>
+      <c r="B352" s="26"/>
+      <c r="C352" s="10"/>
+      <c r="D352" s="10"/>
+      <c r="E352" s="10"/>
+      <c r="F352" s="18"/>
+      <c r="G352" s="9"/>
+      <c r="H352" s="10"/>
+      <c r="I352" s="10"/>
+      <c r="J352" s="11"/>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" s="26"/>
+      <c r="B353" s="26"/>
+      <c r="C353" s="10"/>
+      <c r="D353" s="10"/>
+      <c r="E353" s="10"/>
+      <c r="F353" s="18"/>
+      <c r="G353" s="9"/>
+      <c r="H353" s="10"/>
+      <c r="I353" s="10"/>
+      <c r="J353" s="11"/>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" s="26"/>
+      <c r="B354" s="26"/>
+      <c r="C354" s="10"/>
+      <c r="D354" s="10"/>
+      <c r="E354" s="10"/>
+      <c r="F354" s="18"/>
+      <c r="G354" s="9"/>
+      <c r="H354" s="10"/>
+      <c r="I354" s="10"/>
+      <c r="J354" s="11"/>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" s="26"/>
+      <c r="B355" s="26"/>
+      <c r="C355" s="10"/>
+      <c r="D355" s="10"/>
+      <c r="E355" s="10"/>
+      <c r="F355" s="18"/>
+      <c r="G355" s="9"/>
+      <c r="H355" s="10"/>
+      <c r="I355" s="10"/>
+      <c r="J355" s="11"/>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" s="26"/>
+      <c r="B356" s="26"/>
+      <c r="C356" s="10"/>
+      <c r="D356" s="10"/>
+      <c r="E356" s="10"/>
+      <c r="F356" s="18"/>
+      <c r="G356" s="9"/>
+      <c r="H356" s="10"/>
+      <c r="I356" s="10"/>
+      <c r="J356" s="11"/>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" s="26"/>
+      <c r="B357" s="26"/>
+      <c r="C357" s="10"/>
+      <c r="D357" s="10"/>
+      <c r="E357" s="10"/>
+      <c r="F357" s="18"/>
+      <c r="G357" s="9"/>
+      <c r="H357" s="10"/>
+      <c r="I357" s="10"/>
+      <c r="J357" s="11"/>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358" s="26"/>
+      <c r="B358" s="26"/>
+      <c r="C358" s="10"/>
+      <c r="D358" s="10"/>
+      <c r="E358" s="10"/>
+      <c r="F358" s="18"/>
+      <c r="G358" s="9"/>
+      <c r="H358" s="10"/>
+      <c r="I358" s="10"/>
+      <c r="J358" s="11"/>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" s="26"/>
+      <c r="B359" s="26"/>
+      <c r="C359" s="10"/>
+      <c r="D359" s="10"/>
+      <c r="E359" s="10"/>
+      <c r="F359" s="18"/>
+      <c r="G359" s="9"/>
+      <c r="H359" s="10"/>
+      <c r="I359" s="10"/>
+      <c r="J359" s="11"/>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" s="26"/>
+      <c r="B360" s="26"/>
+      <c r="C360" s="10"/>
+      <c r="D360" s="10"/>
+      <c r="E360" s="10"/>
+      <c r="F360" s="18"/>
+      <c r="G360" s="9"/>
+      <c r="H360" s="10"/>
+      <c r="I360" s="10"/>
+      <c r="J360" s="11"/>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" s="26"/>
+      <c r="B361" s="26"/>
+      <c r="C361" s="10"/>
+      <c r="D361" s="10"/>
+      <c r="E361" s="10"/>
+      <c r="F361" s="18"/>
+      <c r="G361" s="9"/>
+      <c r="H361" s="10"/>
+      <c r="I361" s="10"/>
+      <c r="J361" s="11"/>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" s="26"/>
+      <c r="B362" s="26"/>
+      <c r="C362" s="10"/>
+      <c r="D362" s="10"/>
+      <c r="E362" s="10"/>
+      <c r="F362" s="18"/>
+      <c r="G362" s="9"/>
+      <c r="H362" s="10"/>
+      <c r="I362" s="10"/>
+      <c r="J362" s="11"/>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" s="26"/>
+      <c r="B363" s="26"/>
+      <c r="C363" s="10"/>
+      <c r="D363" s="10"/>
+      <c r="E363" s="10"/>
+      <c r="F363" s="18"/>
+      <c r="G363" s="9"/>
+      <c r="H363" s="10"/>
+      <c r="I363" s="10"/>
+      <c r="J363" s="11"/>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" s="26"/>
+      <c r="B364" s="26"/>
+      <c r="C364" s="10"/>
+      <c r="D364" s="10"/>
+      <c r="E364" s="10"/>
+      <c r="F364" s="18"/>
+      <c r="G364" s="9"/>
+      <c r="H364" s="10"/>
+      <c r="I364" s="10"/>
+      <c r="J364" s="11"/>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" s="26"/>
+      <c r="B365" s="26"/>
+      <c r="C365" s="10"/>
+      <c r="D365" s="10"/>
+      <c r="E365" s="10"/>
+      <c r="F365" s="18"/>
+      <c r="G365" s="9"/>
+      <c r="H365" s="10"/>
+      <c r="I365" s="10"/>
+      <c r="J365" s="11"/>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" s="26"/>
+      <c r="B366" s="26"/>
+      <c r="C366" s="10"/>
+      <c r="D366" s="10"/>
+      <c r="E366" s="10"/>
+      <c r="F366" s="18"/>
+      <c r="G366" s="9"/>
+      <c r="H366" s="10"/>
+      <c r="I366" s="10"/>
+      <c r="J366" s="11"/>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" s="26"/>
+      <c r="B367" s="26"/>
+      <c r="C367" s="10"/>
+      <c r="D367" s="10"/>
+      <c r="E367" s="10"/>
+      <c r="F367" s="18"/>
+      <c r="G367" s="9"/>
+      <c r="H367" s="10"/>
+      <c r="I367" s="10"/>
+      <c r="J367" s="11"/>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" s="26"/>
+      <c r="B368" s="26"/>
+      <c r="C368" s="10"/>
+      <c r="D368" s="10"/>
+      <c r="E368" s="10"/>
+      <c r="F368" s="18"/>
+      <c r="G368" s="9"/>
+      <c r="H368" s="10"/>
+      <c r="I368" s="10"/>
+      <c r="J368" s="11"/>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" s="26"/>
+      <c r="B369" s="26"/>
+      <c r="C369" s="10"/>
+      <c r="D369" s="10"/>
+      <c r="E369" s="10"/>
+      <c r="F369" s="18"/>
+      <c r="G369" s="9"/>
+      <c r="H369" s="10"/>
+      <c r="I369" s="10"/>
+      <c r="J369" s="11"/>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" s="26"/>
+      <c r="B370" s="26"/>
+      <c r="C370" s="10"/>
+      <c r="D370" s="10"/>
+      <c r="E370" s="10"/>
+      <c r="F370" s="18"/>
+      <c r="G370" s="9"/>
+      <c r="H370" s="10"/>
+      <c r="I370" s="10"/>
+      <c r="J370" s="11"/>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" s="26"/>
+      <c r="B371" s="26"/>
+      <c r="C371" s="10"/>
+      <c r="D371" s="10"/>
+      <c r="E371" s="10"/>
+      <c r="F371" s="18"/>
+      <c r="G371" s="9"/>
+      <c r="H371" s="10"/>
+      <c r="I371" s="10"/>
+      <c r="J371" s="11"/>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" s="26"/>
+      <c r="B372" s="26"/>
+      <c r="C372" s="10"/>
+      <c r="D372" s="10"/>
+      <c r="E372" s="10"/>
+      <c r="F372" s="18"/>
+      <c r="G372" s="9"/>
+      <c r="H372" s="10"/>
+      <c r="I372" s="10"/>
+      <c r="J372" s="11"/>
+    </row>
+    <row r="373" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="31"/>
+      <c r="B373" s="32"/>
+      <c r="C373" s="20"/>
+      <c r="D373" s="21"/>
+      <c r="E373" s="21"/>
+      <c r="F373" s="22"/>
+      <c r="G373" s="19"/>
+      <c r="H373" s="21"/>
+      <c r="I373" s="21"/>
+      <c r="J373" s="23"/>
+    </row>
+    <row r="374" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="116">
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B73:B85"/>
+    <mergeCell ref="C73:C85"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="C87:C92"/>
+    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="C52:C63"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="C41:C50"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TCs & Issues_Hend Gomaa.xlsx
+++ b/TCs & Issues_Hend Gomaa.xlsx
@@ -4,19 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="847" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="847"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="13" r:id="rId1"/>
     <sheet name="TCs_Login" sheetId="2" r:id="rId2"/>
     <sheet name="TCs_User Managment" sheetId="14" r:id="rId3"/>
+    <sheet name="Issues" sheetId="15" r:id="rId4"/>
+    <sheet name="Issue 2 SS" sheetId="16" r:id="rId5"/>
+    <sheet name="Issue 3 SS" sheetId="17" r:id="rId6"/>
+    <sheet name="Issue 4 SS" sheetId="18" r:id="rId7"/>
+    <sheet name="Issue 5 SS" sheetId="19" r:id="rId8"/>
+    <sheet name="Issue 7 SS" sheetId="20" r:id="rId9"/>
+    <sheet name="Issue 8 SS" sheetId="21" r:id="rId10"/>
+    <sheet name="Lokups" sheetId="22" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="453">
   <si>
     <t>ID</t>
   </si>
@@ -322,6 +330,9 @@
     <t>Hend Gomaa</t>
   </si>
   <si>
+    <t>Issue 8</t>
+  </si>
+  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -360,6 +371,9 @@
   </si>
   <si>
     <t>users page opens successfully</t>
+  </si>
+  <si>
+    <t>Issue 1</t>
   </si>
   <si>
     <t>UM_2</t>
@@ -509,6 +523,9 @@
 2. added user is not saved</t>
   </si>
   <si>
+    <t>Issue 3</t>
+  </si>
+  <si>
     <t>UM_AU_3</t>
   </si>
   <si>
@@ -655,6 +672,9 @@
   </si>
   <si>
     <t>password accepted and DB not affected with the statement</t>
+  </si>
+  <si>
+    <t>Issue 6 and 7</t>
   </si>
   <si>
     <t>as specified in the requirement doc
@@ -758,6 +778,9 @@
     <t>Add users page opens successfully</t>
   </si>
   <si>
+    <t>issue 5</t>
+  </si>
+  <si>
     <t>Add New User _ Notification</t>
   </si>
   <si>
@@ -1076,6 +1099,9 @@
     <t>all records with the username are displayed</t>
   </si>
   <si>
+    <t>Issue 4</t>
+  </si>
+  <si>
     <t>UM_SU_4</t>
   </si>
   <si>
@@ -1086,6 +1112,9 @@
   </si>
   <si>
     <t>all records with the Employee name are displayed</t>
+  </si>
+  <si>
+    <t>Issue 2</t>
   </si>
   <si>
     <t>UM_SU_5</t>
@@ -1174,13 +1203,719 @@
   </si>
   <si>
     <t>Finalize TCs</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Detected on
+dd-mm-yy</t>
+  </si>
+  <si>
+    <t>Detected By</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Linked TC</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>Closure Reason</t>
+  </si>
+  <si>
+    <t>Enhancement_Functionality</t>
+  </si>
+  <si>
+    <t>Add paging for users list</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre Conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Users list contains more than 15 users
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Login into Orange HRM 
+2. Navigate to User Management page
+3. check displayed users list</t>
+    </r>
+  </si>
+  <si>
+    <t>Results are displayed with pagination to avoid scrolling down the page</t>
+  </si>
+  <si>
+    <t>No paging applied</t>
+  </si>
+  <si>
+    <t>URL: https://opensource-demo.orangehrmlive.com
+Username: admin
+Password: admin123</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Windows 7</t>
+  </si>
+  <si>
+    <t>Google Chrome, Version 71.0.3578.80</t>
+  </si>
+  <si>
+    <t>En</t>
+  </si>
+  <si>
+    <t>15-12-18</t>
+  </si>
+  <si>
+    <t>Orang Labs SPOC</t>
+  </si>
+  <si>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>Issue_Functionality</t>
+  </si>
+  <si>
+    <t>Search with Employee name not exist returnes incorrect results</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre Conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Users list contains several users
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Login into Orange HRM 
+2. Navigate to User Management page
+3. insert search criteria in Employee name field
+4. Click Search button</t>
+    </r>
+  </si>
+  <si>
+    <t>"No results found" message displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. All records are returned 
+</t>
+  </si>
+  <si>
+    <t>URL: https://opensource-demo.orangehrmlive.com
+Username: admin
+Password: admin123
+Search Criteria: hend</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Google Chrome, Version 71.0.3578.81</t>
+  </si>
+  <si>
+    <t>Saving more than one record for the same employee is accepted</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre Conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User already logged in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Login into Orange HRM 
+2. Navigate to User Management page
+3. click add user
+4. insert a used employee name
+5. Save</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Error message displayed
+2. user is not saved</t>
+  </si>
+  <si>
+    <t>User is saved successfully and added to users list</t>
+  </si>
+  <si>
+    <t>URL: https://opensource-demo.orangehrmlive.com
+Username: admin
+Password: admin123
+Inserted employee name: John Smith</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Google Chrome, Version 71.0.3578.82</t>
+  </si>
+  <si>
+    <t>Search with partial username returnes no results</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre Conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User already logged in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Login into Orange HRM 
+2. Navigate to User Management page
+3. insert part of an existing username
+4. click search button</t>
+    </r>
+  </si>
+  <si>
+    <t>all recordes with user name contains the inserted value are returned</t>
+  </si>
+  <si>
+    <t>URL: https://opensource-demo.orangehrmlive.com
+Username: admin
+Password: admin123
+Inserted username: fif</t>
+  </si>
+  <si>
+    <t>Google Chrome, Version 71.0.3578.83</t>
+  </si>
+  <si>
+    <t>Issue_UI</t>
+  </si>
+  <si>
+    <t>Add new user, Un equal space between fields</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre Conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User already logged in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Login into Orange HRM 
+2. Navigate to User Management page
+3. click add user
+4. check the space between page fields</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">space should be equal </t>
+  </si>
+  <si>
+    <t>No tequal space between fields as in the attachement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL: https://opensource-demo.orangehrmlive.com
+Username: admin
+Password: admin123
+</t>
+  </si>
+  <si>
+    <t>Google Chrome, Version 71.0.3578.84</t>
+  </si>
+  <si>
+    <t>Issue 5</t>
+  </si>
+  <si>
+    <t>Saving user without Password and confirmation is accepted</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre Conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User already logged in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Login into Orange HRM 
+2. Navigate to User Management page
+3. click add user
+4. insert user details
+5. DON"T insert password and password confirmation
+6. Click save button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. added user is saved successfully and the page is closed
+2. admin is re-directed to the users page
+3. success message displayed
+4. inserted user is displayed in the users list in users page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL: https://opensource-demo.orangehrmlive.com
+Username: admin
+Password: admin123
+Added user: Admin2
+</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Google Chrome, Version 71.0.3578.85</t>
+  </si>
+  <si>
+    <t>UM_AU_7 and UM_AU_8</t>
+  </si>
+  <si>
+    <t>Add User_Password and confirm password are not flaged as mandatory</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre Conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User already logged in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Login into Orange HRM 
+2. Navigate to User Management page
+3. click add user
+4. insert user details
+5. check password and password confirmation fields</t>
+    </r>
+  </si>
+  <si>
+    <t>Both fields to be flagged as mandatory with asterisk (*)</t>
+  </si>
+  <si>
+    <t>Both fields are not flagged as mandatory with asterisk (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL: https://opensource-demo.orangehrmlive.com
+Username: admin
+Password: admin123
+</t>
+  </si>
+  <si>
+    <t>Google Chrome, Version 71.0.3578.86</t>
+  </si>
+  <si>
+    <t>Issue 7</t>
+  </si>
+  <si>
+    <t>Saved username and password overlapped with fields' hints</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre Conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+user accepts browser to save site UN and PW
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Open Orange HRM URL
+2. check username and passwordfields</t>
+    </r>
+  </si>
+  <si>
+    <t>Saved username and password are only displayed</t>
+  </si>
+  <si>
+    <t>username and password overlapped with fields' hints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL: https://opensource-demo.orangehrmlive.com
+</t>
+  </si>
+  <si>
+    <t>Google Chrome, Version 71.0.3578.87</t>
+  </si>
+  <si>
+    <t>Closuer Reason</t>
+  </si>
+  <si>
+    <t>Enhancement_UI</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Re-Opened</t>
+  </si>
+  <si>
+    <t>Not an Issue</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Postponed</t>
+  </si>
+  <si>
+    <t>Need Information</t>
+  </si>
+  <si>
+    <t>Non Reproducable</t>
+  </si>
+  <si>
+    <t>Catastrophic</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>New Requirements</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Data Issue</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Known Issue</t>
+  </si>
+  <si>
+    <t>Out Of Scope</t>
+  </si>
+  <si>
+    <t>Add issues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1227,8 +1962,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1307,8 +2051,20 @@
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1783,12 +2539,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1994,6 +2759,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2152,6 +2929,264 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>112838</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>113500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11695238" cy="6400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>103314</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11685714" cy="6447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>312838</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11895238" cy="6533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>551009</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11523809" cy="6409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>169981</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11752381" cy="6380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>503467</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>103976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10866667" cy="6390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2459,8 +3494,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,21 +3509,21 @@
     <row r="1" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
+        <v>97</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
     </row>
     <row r="5" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>94</v>
@@ -2505,7 +3540,7 @@
         <v>95</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2519,14 +3554,22 @@
         <v>95</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="42"/>
+      <c r="A9" s="42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B9" s="43">
+        <v>43450</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
@@ -2548,6 +3591,171 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="D5:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>435</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>379</v>
+      </c>
+      <c r="G6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>373</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>399</v>
+      </c>
+      <c r="G8" t="s">
+        <v>440</v>
+      </c>
+      <c r="H8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>418</v>
+      </c>
+      <c r="G9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>444</v>
+      </c>
+      <c r="G10" t="s">
+        <v>445</v>
+      </c>
+      <c r="H10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>447</v>
+      </c>
+      <c r="H11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>449</v>
+      </c>
+      <c r="H12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -2556,9 +3764,9 @@
   <dimension ref="A1:K258"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F73" sqref="F73"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,19 +3786,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2627,28 +3835,28 @@
       <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="83" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2667,9 +3875,9 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="80"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2684,9 +3892,9 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="80"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2703,9 +3911,9 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="81"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
@@ -2733,13 +3941,13 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="83" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2758,9 +3966,9 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="80"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2775,9 +3983,9 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="80"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
@@ -2794,9 +4002,9 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="81"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
@@ -2824,13 +4032,13 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="83" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2849,9 +4057,9 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="80"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
@@ -2866,9 +4074,9 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="80"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2885,9 +4093,9 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="81"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
@@ -2915,13 +4123,13 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="83" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2940,9 +4148,9 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="80"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
@@ -2957,9 +4165,9 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="80"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
@@ -2976,9 +4184,9 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="81"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
@@ -3006,13 +4214,13 @@
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="83" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3031,9 +4239,9 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="80"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
@@ -3045,9 +4253,9 @@
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="80"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
@@ -3062,9 +4270,9 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="81"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="3" t="s">
         <v>16</v>
       </c>
@@ -3092,13 +4300,13 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="83" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3117,9 +4325,9 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="80"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="3" t="s">
         <v>12</v>
       </c>
@@ -3134,9 +4342,9 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="80"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="1" t="s">
         <v>15</v>
       </c>
@@ -3149,9 +4357,9 @@
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="81"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="3" t="s">
         <v>16</v>
       </c>
@@ -3179,13 +4387,13 @@
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="79" t="s">
+      <c r="C34" s="83" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3204,9 +4412,9 @@
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="80"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="3" t="s">
         <v>12</v>
       </c>
@@ -3218,9 +4426,9 @@
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="80"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
@@ -3233,9 +4441,9 @@
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="81"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="3" t="s">
         <v>16</v>
       </c>
@@ -3263,13 +4471,13 @@
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="79" t="s">
+      <c r="C39" s="83" t="s">
         <v>51</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3288,9 +4496,9 @@
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="80"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="84"/>
       <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
@@ -3305,9 +4513,9 @@
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="80"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="84"/>
       <c r="D41" s="1" t="s">
         <v>15</v>
       </c>
@@ -3322,9 +4530,9 @@
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="75"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="81"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3352,13 +4560,13 @@
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="79" t="s">
+      <c r="C44" s="83" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -3377,9 +4585,9 @@
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="74"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="80"/>
+      <c r="A45" s="78"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="84"/>
       <c r="D45" s="3" t="s">
         <v>12</v>
       </c>
@@ -3394,9 +4602,9 @@
       <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="74"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="80"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="84"/>
       <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
@@ -3411,9 +4619,9 @@
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="75"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="81"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="85"/>
       <c r="D47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3441,13 +4649,13 @@
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="76" t="s">
+      <c r="B49" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="79" t="s">
+      <c r="C49" s="83" t="s">
         <v>52</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3466,9 +4674,9 @@
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="80"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="84"/>
       <c r="D50" s="3" t="s">
         <v>12</v>
       </c>
@@ -3480,9 +4688,9 @@
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="74"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="80"/>
+      <c r="A51" s="78"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="84"/>
       <c r="D51" s="1" t="s">
         <v>15</v>
       </c>
@@ -3495,9 +4703,9 @@
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="75"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="81"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="85"/>
       <c r="D52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3525,13 +4733,13 @@
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="73" t="s">
+      <c r="A54" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="76" t="s">
+      <c r="B54" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="83" t="s">
         <v>91</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -3550,9 +4758,9 @@
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="74"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="80"/>
+      <c r="A55" s="78"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="84"/>
       <c r="D55" s="3" t="s">
         <v>12</v>
       </c>
@@ -3567,9 +4775,9 @@
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="74"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="80"/>
+      <c r="A56" s="78"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="84"/>
       <c r="D56" s="1" t="s">
         <v>15</v>
       </c>
@@ -3584,9 +4792,9 @@
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="75"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="81"/>
+      <c r="A57" s="79"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="85"/>
       <c r="D57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3614,13 +4822,13 @@
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="76" t="s">
+      <c r="B59" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="79" t="s">
+      <c r="C59" s="83" t="s">
         <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -3639,9 +4847,9 @@
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="74"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="80"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="84"/>
       <c r="D60" s="3" t="s">
         <v>12</v>
       </c>
@@ -3656,9 +4864,9 @@
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="74"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="80"/>
+      <c r="A61" s="78"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="84"/>
       <c r="D61" s="1" t="s">
         <v>15</v>
       </c>
@@ -3673,9 +4881,9 @@
       <c r="K61" s="6"/>
     </row>
     <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="75"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="81"/>
+      <c r="A62" s="79"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="85"/>
       <c r="D62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3703,13 +4911,13 @@
       <c r="K63" s="6"/>
     </row>
     <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="76" t="s">
+      <c r="B64" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="79" t="s">
+      <c r="C64" s="83" t="s">
         <v>92</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3728,9 +4936,9 @@
       <c r="K64" s="6"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="74"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="80"/>
+      <c r="A65" s="78"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="84"/>
       <c r="D65" s="3" t="s">
         <v>12</v>
       </c>
@@ -3745,9 +4953,9 @@
       <c r="K65" s="6"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="74"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="80"/>
+      <c r="A66" s="78"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="84"/>
       <c r="D66" s="1" t="s">
         <v>15</v>
       </c>
@@ -3762,9 +4970,9 @@
       <c r="K66" s="6"/>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="75"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="81"/>
+      <c r="A67" s="79"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="85"/>
       <c r="D67" s="3" t="s">
         <v>16</v>
       </c>
@@ -3792,13 +5000,13 @@
       <c r="K68" s="6"/>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="82" t="s">
+      <c r="A69" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="76" t="s">
+      <c r="B69" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="83" t="s">
         <v>55</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -3817,9 +5025,9 @@
       <c r="K69" s="6"/>
     </row>
     <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="83"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="81"/>
+      <c r="A70" s="87"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="85"/>
       <c r="D70" s="3" t="s">
         <v>56</v>
       </c>
@@ -3828,7 +5036,9 @@
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
+      <c r="I70" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="J70" s="11"/>
       <c r="K70" s="6"/>
     </row>
@@ -3846,18 +5056,18 @@
       <c r="K71" s="6"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="72"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="75"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="76"/>
       <c r="K72" s="6"/>
     </row>
     <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5558,6 +6768,7 @@
       <c r="F209" s="18"/>
       <c r="G209" s="9"/>
       <c r="H209" s="10"/>
+      <c r="I209" s="10"/>
       <c r="J209" s="11"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -6213,10 +7424,10 @@
   </sheetPr>
   <dimension ref="A1:K374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5:I264"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6236,19 +7447,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6259,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" s="50" t="s">
         <v>4</v>
@@ -6285,25 +7496,25 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="88"/>
+      <c r="A4" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="92"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -6314,32 +7525,34 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="76" t="s">
+      <c r="A5" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="B5" s="80" t="s">
         <v>106</v>
       </c>
+      <c r="C5" s="83" t="s">
+        <v>107</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="J5" s="11"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="81"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="3" t="s">
         <v>56</v>
       </c>
@@ -6365,17 +7578,17 @@
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="95" t="s">
-        <v>106</v>
+      <c r="A8" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
@@ -6385,11 +7598,11 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="96"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="9"/>
@@ -6398,11 +7611,11 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="99"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="96"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="1"/>
@@ -6412,11 +7625,11 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="100"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="97"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="9"/>
@@ -6438,16 +7651,16 @@
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="18"/>
@@ -6469,21 +7682,21 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="95" t="s">
-        <v>106</v>
+      <c r="A15" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>107</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
@@ -6491,14 +7704,14 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="96"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
@@ -6506,15 +7719,15 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="96"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
@@ -6522,14 +7735,14 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="97"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
@@ -6550,16 +7763,16 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="18"/>
@@ -6581,10 +7794,10 @@
       <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="88"/>
+      <c r="A22" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="92"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="18"/>
@@ -6595,21 +7808,21 @@
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="95" t="s">
+      <c r="A23" s="93" t="s">
         <v>134</v>
       </c>
+      <c r="B23" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>136</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -6617,14 +7830,14 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="96"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
@@ -6632,14 +7845,14 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="96"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="9"/>
@@ -6648,15 +7861,15 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="97"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
@@ -6677,21 +7890,21 @@
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="89" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="92" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="95" t="s">
+      <c r="A28" s="93" t="s">
         <v>144</v>
       </c>
+      <c r="B28" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="99" t="s">
+        <v>146</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
@@ -6699,14 +7912,14 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="96"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
@@ -6714,14 +7927,14 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="96"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="9"/>
@@ -6730,19 +7943,21 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="97"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="I31" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -6758,21 +7973,21 @@
       <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="104" t="s">
-        <v>148</v>
+      <c r="A33" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="108" t="s">
+        <v>151</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G33" s="56"/>
       <c r="H33" s="57"/>
@@ -6780,15 +7995,15 @@
       <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="105"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="57" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E34" s="60"/>
       <c r="F34" s="57" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G34" s="56"/>
       <c r="H34" s="57"/>
@@ -6796,15 +8011,15 @@
       <c r="J34" s="58"/>
     </row>
     <row r="35" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="105"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G35" s="56"/>
       <c r="H35" s="57"/>
@@ -6812,15 +8027,15 @@
       <c r="J35" s="58"/>
     </row>
     <row r="36" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="105"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="109"/>
       <c r="D36" s="57" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E36" s="60"/>
       <c r="F36" s="57" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G36" s="56"/>
       <c r="H36" s="57"/>
@@ -6828,15 +8043,15 @@
       <c r="J36" s="58"/>
     </row>
     <row r="37" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="105"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="109"/>
       <c r="D37" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G37" s="56"/>
       <c r="H37" s="57"/>
@@ -6844,15 +8059,15 @@
       <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="105"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="57" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E38" s="60"/>
       <c r="F38" s="57" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G38" s="56"/>
       <c r="H38" s="57"/>
@@ -6860,15 +8075,15 @@
       <c r="J38" s="58"/>
     </row>
     <row r="39" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="106"/>
+      <c r="A39" s="95"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="110"/>
       <c r="D39" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G39" s="56"/>
       <c r="H39" s="57"/>
@@ -6888,21 +8103,21 @@
       <c r="J40" s="16"/>
     </row>
     <row r="41" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="89" t="s">
-        <v>163</v>
-      </c>
-      <c r="B41" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="107" t="s">
-        <v>148</v>
+      <c r="A41" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="111" t="s">
+        <v>151</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G41" s="56"/>
       <c r="H41" s="57"/>
@@ -6910,15 +8125,15 @@
       <c r="J41" s="58"/>
     </row>
     <row r="42" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="108"/>
+      <c r="A42" s="94"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="57" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E42" s="60"/>
       <c r="F42" s="57" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G42" s="56"/>
       <c r="H42" s="57"/>
@@ -6926,15 +8141,15 @@
       <c r="J42" s="58"/>
     </row>
     <row r="43" spans="1:10" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="90"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="108"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="112"/>
       <c r="D43" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G43" s="56"/>
       <c r="H43" s="57"/>
@@ -6942,15 +8157,15 @@
       <c r="J43" s="58"/>
     </row>
     <row r="44" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="108"/>
+      <c r="A44" s="94"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="112"/>
       <c r="D44" s="57" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E44" s="60"/>
       <c r="F44" s="57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G44" s="56"/>
       <c r="H44" s="57"/>
@@ -6958,15 +8173,15 @@
       <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="90"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="108"/>
+      <c r="A45" s="94"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="112"/>
       <c r="D45" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G45" s="56"/>
       <c r="H45" s="57"/>
@@ -6974,15 +8189,15 @@
       <c r="J45" s="58"/>
     </row>
     <row r="46" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="108"/>
+      <c r="A46" s="94"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="112"/>
       <c r="D46" s="57" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E46" s="60"/>
       <c r="F46" s="57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G46" s="56"/>
       <c r="H46" s="57"/>
@@ -6990,15 +8205,15 @@
       <c r="J46" s="58"/>
     </row>
     <row r="47" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="90"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="108"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="112"/>
       <c r="D47" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G47" s="56"/>
       <c r="H47" s="57"/>
@@ -7006,15 +8221,15 @@
       <c r="J47" s="58"/>
     </row>
     <row r="48" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="108"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="112"/>
       <c r="D48" s="57" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E48" s="60"/>
       <c r="F48" s="57" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G48" s="56"/>
       <c r="H48" s="57"/>
@@ -7022,11 +8237,11 @@
       <c r="J48" s="58"/>
     </row>
     <row r="49" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="90"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="108"/>
+      <c r="A49" s="94"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="112"/>
       <c r="D49" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -7036,15 +8251,15 @@
       <c r="J49" s="58"/>
     </row>
     <row r="50" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="91"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="109"/>
+      <c r="A50" s="95"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="61" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E50" s="62"/>
       <c r="F50" s="61" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G50" s="56"/>
       <c r="H50" s="57"/>
@@ -7064,21 +8279,21 @@
       <c r="J51" s="16"/>
     </row>
     <row r="52" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" s="101" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" s="104" t="s">
-        <v>148</v>
+      <c r="A52" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="108" t="s">
+        <v>151</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G52" s="56"/>
       <c r="H52" s="57"/>
@@ -7086,15 +8301,15 @@
       <c r="J52" s="58"/>
     </row>
     <row r="53" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="90"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="105"/>
+      <c r="A53" s="94"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="57" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E53" s="60"/>
       <c r="F53" s="57" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G53" s="56"/>
       <c r="H53" s="57"/>
@@ -7102,15 +8317,15 @@
       <c r="J53" s="58"/>
     </row>
     <row r="54" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="90"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="105"/>
+      <c r="A54" s="94"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="109"/>
       <c r="D54" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G54" s="56"/>
       <c r="H54" s="57"/>
@@ -7118,15 +8333,15 @@
       <c r="J54" s="58"/>
     </row>
     <row r="55" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="90"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="105"/>
+      <c r="A55" s="94"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="109"/>
       <c r="D55" s="57" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E55" s="60"/>
       <c r="F55" s="57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G55" s="56"/>
       <c r="H55" s="57"/>
@@ -7134,15 +8349,15 @@
       <c r="J55" s="58"/>
     </row>
     <row r="56" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="90"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="105"/>
+      <c r="A56" s="94"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="109"/>
       <c r="D56" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G56" s="56"/>
       <c r="H56" s="57"/>
@@ -7150,15 +8365,15 @@
       <c r="J56" s="58"/>
     </row>
     <row r="57" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="90"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="105"/>
+      <c r="A57" s="94"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="109"/>
       <c r="D57" s="57" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E57" s="60"/>
       <c r="F57" s="57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G57" s="56"/>
       <c r="H57" s="57"/>
@@ -7166,15 +8381,15 @@
       <c r="J57" s="58"/>
     </row>
     <row r="58" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="90"/>
-      <c r="B58" s="102"/>
-      <c r="C58" s="105"/>
+      <c r="A58" s="94"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="109"/>
       <c r="D58" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G58" s="56"/>
       <c r="H58" s="57"/>
@@ -7182,15 +8397,15 @@
       <c r="J58" s="58"/>
     </row>
     <row r="59" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="90"/>
-      <c r="B59" s="102"/>
-      <c r="C59" s="105"/>
+      <c r="A59" s="94"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="109"/>
       <c r="D59" s="57" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E59" s="60"/>
       <c r="F59" s="57" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G59" s="56"/>
       <c r="H59" s="57"/>
@@ -7198,15 +8413,15 @@
       <c r="J59" s="58"/>
     </row>
     <row r="60" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="90"/>
-      <c r="B60" s="102"/>
-      <c r="C60" s="105"/>
+      <c r="A60" s="94"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="109"/>
       <c r="D60" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G60" s="56"/>
       <c r="H60" s="57"/>
@@ -7214,15 +8429,15 @@
       <c r="J60" s="58"/>
     </row>
     <row r="61" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="90"/>
-      <c r="B61" s="102"/>
-      <c r="C61" s="105"/>
+      <c r="A61" s="94"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="109"/>
       <c r="D61" s="57" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E61" s="60"/>
       <c r="F61" s="57" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G61" s="56"/>
       <c r="H61" s="57"/>
@@ -7230,15 +8445,15 @@
       <c r="J61" s="58"/>
     </row>
     <row r="62" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="90"/>
-      <c r="B62" s="102"/>
-      <c r="C62" s="105"/>
+      <c r="A62" s="94"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="109"/>
       <c r="D62" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G62" s="56"/>
       <c r="H62" s="57"/>
@@ -7246,15 +8461,15 @@
       <c r="J62" s="58"/>
     </row>
     <row r="63" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="91"/>
-      <c r="B63" s="103"/>
-      <c r="C63" s="106"/>
+      <c r="A63" s="95"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="110"/>
       <c r="D63" s="57" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E63" s="60"/>
       <c r="F63" s="57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G63" s="56"/>
       <c r="H63" s="57"/>
@@ -7274,21 +8489,21 @@
       <c r="J64" s="16"/>
     </row>
     <row r="65" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="B65" s="101" t="s">
-        <v>187</v>
-      </c>
-      <c r="C65" s="104" t="s">
-        <v>148</v>
+      <c r="A65" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="108" t="s">
+        <v>151</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G65" s="56"/>
       <c r="H65" s="57"/>
@@ -7296,15 +8511,15 @@
       <c r="J65" s="58"/>
     </row>
     <row r="66" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="90"/>
-      <c r="B66" s="102"/>
-      <c r="C66" s="105"/>
+      <c r="A66" s="94"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="109"/>
       <c r="D66" s="57" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E66" s="60"/>
       <c r="F66" s="57" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G66" s="56"/>
       <c r="H66" s="57"/>
@@ -7312,15 +8527,15 @@
       <c r="J66" s="58"/>
     </row>
     <row r="67" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="90"/>
-      <c r="B67" s="102"/>
-      <c r="C67" s="105"/>
+      <c r="A67" s="94"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="109"/>
       <c r="D67" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G67" s="56"/>
       <c r="H67" s="57"/>
@@ -7328,15 +8543,15 @@
       <c r="J67" s="58"/>
     </row>
     <row r="68" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="90"/>
-      <c r="B68" s="102"/>
-      <c r="C68" s="105"/>
+      <c r="A68" s="94"/>
+      <c r="B68" s="106"/>
+      <c r="C68" s="109"/>
       <c r="D68" s="57" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E68" s="60"/>
       <c r="F68" s="57" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G68" s="56"/>
       <c r="H68" s="57"/>
@@ -7344,15 +8559,15 @@
       <c r="J68" s="58"/>
     </row>
     <row r="69" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="90"/>
-      <c r="B69" s="102"/>
-      <c r="C69" s="105"/>
+      <c r="A69" s="94"/>
+      <c r="B69" s="106"/>
+      <c r="C69" s="109"/>
       <c r="D69" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G69" s="56"/>
       <c r="H69" s="57"/>
@@ -7360,15 +8575,15 @@
       <c r="J69" s="58"/>
     </row>
     <row r="70" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="90"/>
-      <c r="B70" s="102"/>
-      <c r="C70" s="105"/>
+      <c r="A70" s="94"/>
+      <c r="B70" s="106"/>
+      <c r="C70" s="109"/>
       <c r="D70" s="57" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E70" s="60"/>
       <c r="F70" s="57" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G70" s="56"/>
       <c r="H70" s="57"/>
@@ -7376,15 +8591,15 @@
       <c r="J70" s="58"/>
     </row>
     <row r="71" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="91"/>
-      <c r="B71" s="103"/>
-      <c r="C71" s="106"/>
+      <c r="A71" s="95"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="110"/>
       <c r="D71" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G71" s="56"/>
       <c r="H71" s="57"/>
@@ -7404,21 +8619,21 @@
       <c r="J72" s="16"/>
     </row>
     <row r="73" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="89" t="s">
-        <v>189</v>
-      </c>
-      <c r="B73" s="101" t="s">
-        <v>190</v>
-      </c>
-      <c r="C73" s="104" t="s">
-        <v>148</v>
+      <c r="A73" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="105" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="108" t="s">
+        <v>151</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G73" s="56"/>
       <c r="H73" s="57"/>
@@ -7426,15 +8641,15 @@
       <c r="J73" s="58"/>
     </row>
     <row r="74" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="90"/>
-      <c r="B74" s="102"/>
-      <c r="C74" s="105"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="106"/>
+      <c r="C74" s="109"/>
       <c r="D74" s="57" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E74" s="60"/>
       <c r="F74" s="57" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G74" s="56"/>
       <c r="H74" s="57"/>
@@ -7442,17 +8657,17 @@
       <c r="J74" s="58"/>
     </row>
     <row r="75" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="90"/>
-      <c r="B75" s="102"/>
-      <c r="C75" s="105"/>
+      <c r="A75" s="94"/>
+      <c r="B75" s="106"/>
+      <c r="C75" s="109"/>
       <c r="D75" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G75" s="56"/>
       <c r="H75" s="57"/>
@@ -7460,15 +8675,15 @@
       <c r="J75" s="58"/>
     </row>
     <row r="76" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="90"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="105"/>
+      <c r="A76" s="94"/>
+      <c r="B76" s="106"/>
+      <c r="C76" s="109"/>
       <c r="D76" s="57" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E76" s="60"/>
       <c r="F76" s="57" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G76" s="56"/>
       <c r="H76" s="57"/>
@@ -7476,15 +8691,15 @@
       <c r="J76" s="58"/>
     </row>
     <row r="77" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="90"/>
-      <c r="B77" s="102"/>
-      <c r="C77" s="105"/>
+      <c r="A77" s="94"/>
+      <c r="B77" s="106"/>
+      <c r="C77" s="109"/>
       <c r="D77" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G77" s="56"/>
       <c r="H77" s="57"/>
@@ -7492,47 +8707,49 @@
       <c r="J77" s="58"/>
     </row>
     <row r="78" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
-      <c r="B78" s="102"/>
-      <c r="C78" s="105"/>
+      <c r="A78" s="94"/>
+      <c r="B78" s="106"/>
+      <c r="C78" s="109"/>
       <c r="D78" s="57" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E78" s="60"/>
       <c r="F78" s="57" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G78" s="56"/>
       <c r="H78" s="57"/>
       <c r="I78" s="57"/>
       <c r="J78" s="58"/>
     </row>
-    <row r="79" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="90"/>
-      <c r="B79" s="102"/>
-      <c r="C79" s="105"/>
+    <row r="79" spans="1:10" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="94"/>
+      <c r="B79" s="106"/>
+      <c r="C79" s="109"/>
       <c r="D79" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G79" s="56"/>
       <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
+      <c r="I79" s="57" t="s">
+        <v>197</v>
+      </c>
       <c r="J79" s="58"/>
     </row>
     <row r="80" spans="1:10" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="90"/>
-      <c r="B80" s="102"/>
-      <c r="C80" s="105"/>
+      <c r="A80" s="94"/>
+      <c r="B80" s="106"/>
+      <c r="C80" s="109"/>
       <c r="D80" s="57" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E80" s="60"/>
       <c r="F80" s="57" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G80" s="56"/>
       <c r="H80" s="57"/>
@@ -7540,15 +8757,15 @@
       <c r="J80" s="58"/>
     </row>
     <row r="81" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="90"/>
-      <c r="B81" s="102"/>
-      <c r="C81" s="105"/>
+      <c r="A81" s="94"/>
+      <c r="B81" s="106"/>
+      <c r="C81" s="109"/>
       <c r="D81" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G81" s="56"/>
       <c r="H81" s="57"/>
@@ -7556,15 +8773,15 @@
       <c r="J81" s="58"/>
     </row>
     <row r="82" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="90"/>
-      <c r="B82" s="102"/>
-      <c r="C82" s="105"/>
+      <c r="A82" s="94"/>
+      <c r="B82" s="106"/>
+      <c r="C82" s="109"/>
       <c r="D82" s="57" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E82" s="60"/>
       <c r="F82" s="57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G82" s="56"/>
       <c r="H82" s="57"/>
@@ -7572,15 +8789,15 @@
       <c r="J82" s="58"/>
     </row>
     <row r="83" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="90"/>
-      <c r="B83" s="102"/>
-      <c r="C83" s="105"/>
+      <c r="A83" s="94"/>
+      <c r="B83" s="106"/>
+      <c r="C83" s="109"/>
       <c r="D83" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G83" s="56"/>
       <c r="H83" s="57"/>
@@ -7588,15 +8805,15 @@
       <c r="J83" s="58"/>
     </row>
     <row r="84" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="90"/>
-      <c r="B84" s="102"/>
-      <c r="C84" s="105"/>
+      <c r="A84" s="94"/>
+      <c r="B84" s="106"/>
+      <c r="C84" s="109"/>
       <c r="D84" s="61" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E84" s="62"/>
       <c r="F84" s="61" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G84" s="56"/>
       <c r="H84" s="57"/>
@@ -7604,15 +8821,15 @@
       <c r="J84" s="58"/>
     </row>
     <row r="85" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="91"/>
-      <c r="B85" s="103"/>
-      <c r="C85" s="106"/>
+      <c r="A85" s="95"/>
+      <c r="B85" s="107"/>
+      <c r="C85" s="110"/>
       <c r="D85" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G85" s="56"/>
       <c r="H85" s="57"/>
@@ -7633,21 +8850,21 @@
       <c r="K86" s="59"/>
     </row>
     <row r="87" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="B87" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="C87" s="104" t="s">
-        <v>148</v>
+      <c r="A87" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="108" t="s">
+        <v>151</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G87" s="56"/>
       <c r="H87" s="57"/>
@@ -7655,15 +8872,15 @@
       <c r="J87" s="58"/>
     </row>
     <row r="88" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
-      <c r="B88" s="102"/>
-      <c r="C88" s="105"/>
+      <c r="A88" s="94"/>
+      <c r="B88" s="106"/>
+      <c r="C88" s="109"/>
       <c r="D88" s="57" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E88" s="60"/>
       <c r="F88" s="57" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G88" s="56"/>
       <c r="H88" s="57"/>
@@ -7671,17 +8888,17 @@
       <c r="J88" s="58"/>
     </row>
     <row r="89" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="90"/>
-      <c r="B89" s="102"/>
-      <c r="C89" s="105"/>
+      <c r="A89" s="94"/>
+      <c r="B89" s="106"/>
+      <c r="C89" s="109"/>
       <c r="D89" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G89" s="56"/>
       <c r="H89" s="57"/>
@@ -7689,15 +8906,15 @@
       <c r="J89" s="58"/>
     </row>
     <row r="90" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="90"/>
-      <c r="B90" s="102"/>
-      <c r="C90" s="105"/>
+      <c r="A90" s="94"/>
+      <c r="B90" s="106"/>
+      <c r="C90" s="109"/>
       <c r="D90" s="61" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E90" s="62"/>
       <c r="F90" s="61" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G90" s="56"/>
       <c r="H90" s="57"/>
@@ -7705,35 +8922,37 @@
       <c r="J90" s="58"/>
     </row>
     <row r="91" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="90"/>
-      <c r="B91" s="102"/>
-      <c r="C91" s="105"/>
+      <c r="A91" s="94"/>
+      <c r="B91" s="106"/>
+      <c r="C91" s="109"/>
       <c r="D91" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G91" s="56"/>
       <c r="H91" s="57"/>
       <c r="I91" s="57"/>
       <c r="J91" s="58"/>
     </row>
-    <row r="92" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="91"/>
-      <c r="B92" s="103"/>
-      <c r="C92" s="106"/>
+    <row r="92" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="95"/>
+      <c r="B92" s="107"/>
+      <c r="C92" s="110"/>
       <c r="D92" s="57" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E92" s="60"/>
       <c r="F92" s="57" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G92" s="56"/>
       <c r="H92" s="57"/>
-      <c r="I92" s="57"/>
+      <c r="I92" s="57" t="s">
+        <v>197</v>
+      </c>
       <c r="J92" s="58"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -7749,21 +8968,21 @@
       <c r="J93" s="16"/>
     </row>
     <row r="94" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="89" t="s">
-        <v>205</v>
-      </c>
-      <c r="B94" s="101" t="s">
-        <v>206</v>
-      </c>
-      <c r="C94" s="104" t="s">
-        <v>207</v>
+      <c r="A94" s="93" t="s">
+        <v>209</v>
+      </c>
+      <c r="B94" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" s="108" t="s">
+        <v>211</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G94" s="56"/>
       <c r="H94" s="57"/>
@@ -7771,15 +8990,15 @@
       <c r="J94" s="58"/>
     </row>
     <row r="95" spans="1:11" s="59" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="91"/>
-      <c r="B95" s="103"/>
-      <c r="C95" s="106"/>
+      <c r="A95" s="95"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="110"/>
       <c r="D95" s="57" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E95" s="60"/>
       <c r="F95" s="57" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G95" s="56"/>
       <c r="H95" s="57"/>
@@ -7800,21 +9019,21 @@
       <c r="K96" s="59"/>
     </row>
     <row r="97" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="B97" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="C97" s="95" t="s">
-        <v>214</v>
+      <c r="A97" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="96" t="s">
+        <v>217</v>
+      </c>
+      <c r="C97" s="99" t="s">
+        <v>218</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="10"/>
@@ -7822,14 +9041,14 @@
       <c r="J97" s="11"/>
     </row>
     <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="90"/>
-      <c r="B98" s="93"/>
-      <c r="C98" s="96"/>
+      <c r="A98" s="94"/>
+      <c r="B98" s="97"/>
+      <c r="C98" s="100"/>
       <c r="D98" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="10"/>
@@ -7837,14 +9056,14 @@
       <c r="J98" s="11"/>
     </row>
     <row r="99" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A99" s="90"/>
-      <c r="B99" s="93"/>
-      <c r="C99" s="96"/>
+      <c r="A99" s="94"/>
+      <c r="B99" s="97"/>
+      <c r="C99" s="100"/>
       <c r="D99" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="9"/>
@@ -7853,15 +9072,15 @@
       <c r="J99" s="11"/>
     </row>
     <row r="100" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A100" s="91"/>
-      <c r="B100" s="94"/>
-      <c r="C100" s="97"/>
+      <c r="A100" s="95"/>
+      <c r="B100" s="98"/>
+      <c r="C100" s="101"/>
       <c r="D100" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="10"/>
@@ -7881,21 +9100,21 @@
       <c r="J101" s="16"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="B102" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="C102" s="79" t="s">
-        <v>219</v>
+      <c r="A102" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="B102" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" s="83" t="s">
+        <v>223</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="10"/>
@@ -7904,9 +9123,9 @@
       <c r="K102" s="6"/>
     </row>
     <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="83"/>
-      <c r="B103" s="78"/>
-      <c r="C103" s="81"/>
+      <c r="A103" s="87"/>
+      <c r="B103" s="82"/>
+      <c r="C103" s="85"/>
       <c r="D103" s="3" t="s">
         <v>56</v>
       </c>
@@ -7915,7 +9134,9 @@
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
+      <c r="I103" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="J103" s="11"/>
       <c r="K103" s="6"/>
     </row>
@@ -7932,21 +9153,21 @@
       <c r="J104" s="16"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="B105" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="C105" s="79" t="s">
-        <v>219</v>
+      <c r="A105" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="83" t="s">
+        <v>223</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="10"/>
@@ -7954,20 +9175,20 @@
       <c r="J105" s="11"/>
     </row>
     <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="83"/>
-      <c r="B106" s="78"/>
-      <c r="C106" s="81"/>
+      <c r="A106" s="87"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="85"/>
       <c r="D106" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
       <c r="J106" s="66" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -7983,10 +9204,10 @@
       <c r="J107" s="16"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="B108" s="110"/>
+      <c r="A108" s="91" t="s">
+        <v>232</v>
+      </c>
+      <c r="B108" s="114"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="18"/>
@@ -7998,22 +9219,22 @@
     </row>
     <row r="109" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C109" s="67" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="10"/>
@@ -8033,23 +9254,23 @@
       <c r="J110" s="16"/>
     </row>
     <row r="111" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="98" t="s">
-        <v>234</v>
-      </c>
-      <c r="B111" s="92" t="s">
+      <c r="A111" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="B111" s="96" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" s="83" t="s">
         <v>235</v>
       </c>
-      <c r="C111" s="79" t="s">
-        <v>230</v>
-      </c>
       <c r="D111" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="10"/>
@@ -8057,15 +9278,15 @@
       <c r="J111" s="11"/>
     </row>
     <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="99"/>
-      <c r="B112" s="93"/>
-      <c r="C112" s="80"/>
+      <c r="A112" s="103"/>
+      <c r="B112" s="97"/>
+      <c r="C112" s="84"/>
       <c r="D112" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="10"/>
@@ -8073,11 +9294,11 @@
       <c r="J112" s="11"/>
     </row>
     <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="99"/>
-      <c r="B113" s="93"/>
-      <c r="C113" s="80"/>
+      <c r="A113" s="103"/>
+      <c r="B113" s="97"/>
+      <c r="C113" s="84"/>
       <c r="D113" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="1"/>
@@ -8085,19 +9306,19 @@
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
       <c r="J113" s="41" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A114" s="100"/>
-      <c r="B114" s="94"/>
-      <c r="C114" s="81"/>
+      <c r="A114" s="104"/>
+      <c r="B114" s="98"/>
+      <c r="C114" s="85"/>
       <c r="D114" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="10"/>
@@ -8117,23 +9338,23 @@
       <c r="J115" s="16"/>
     </row>
     <row r="116" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="98" t="s">
-        <v>242</v>
-      </c>
-      <c r="B116" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="C116" s="79" t="s">
-        <v>230</v>
+      <c r="A116" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="B116" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="C116" s="83" t="s">
+        <v>235</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="10"/>
@@ -8141,15 +9362,15 @@
       <c r="J116" s="11"/>
     </row>
     <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="99"/>
-      <c r="B117" s="93"/>
-      <c r="C117" s="80"/>
+      <c r="A117" s="103"/>
+      <c r="B117" s="97"/>
+      <c r="C117" s="84"/>
       <c r="D117" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="10"/>
@@ -8157,11 +9378,11 @@
       <c r="J117" s="11"/>
     </row>
     <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="99"/>
-      <c r="B118" s="93"/>
-      <c r="C118" s="80"/>
+      <c r="A118" s="103"/>
+      <c r="B118" s="97"/>
+      <c r="C118" s="84"/>
       <c r="D118" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="1"/>
@@ -8169,19 +9390,19 @@
       <c r="H118" s="10"/>
       <c r="I118" s="10"/>
       <c r="J118" s="41" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="100"/>
-      <c r="B119" s="94"/>
-      <c r="C119" s="81"/>
+      <c r="A119" s="104"/>
+      <c r="B119" s="98"/>
+      <c r="C119" s="85"/>
       <c r="D119" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="10"/>
@@ -8201,23 +9422,23 @@
       <c r="J120" s="16"/>
     </row>
     <row r="121" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="98" t="s">
-        <v>246</v>
-      </c>
-      <c r="B121" s="92" t="s">
-        <v>247</v>
-      </c>
-      <c r="C121" s="79" t="s">
-        <v>230</v>
+      <c r="A121" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="B121" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121" s="83" t="s">
+        <v>235</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="10"/>
@@ -8225,15 +9446,15 @@
       <c r="J121" s="11"/>
     </row>
     <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="99"/>
-      <c r="B122" s="93"/>
-      <c r="C122" s="80"/>
+      <c r="A122" s="103"/>
+      <c r="B122" s="97"/>
+      <c r="C122" s="84"/>
       <c r="D122" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="10"/>
@@ -8241,11 +9462,11 @@
       <c r="J122" s="11"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="99"/>
-      <c r="B123" s="93"/>
-      <c r="C123" s="80"/>
+      <c r="A123" s="103"/>
+      <c r="B123" s="97"/>
+      <c r="C123" s="84"/>
       <c r="D123" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="1"/>
@@ -8255,15 +9476,15 @@
       <c r="J123" s="11"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="100"/>
-      <c r="B124" s="94"/>
-      <c r="C124" s="81"/>
+      <c r="A124" s="104"/>
+      <c r="B124" s="98"/>
+      <c r="C124" s="85"/>
       <c r="D124" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="10"/>
@@ -8283,23 +9504,23 @@
       <c r="J125" s="16"/>
     </row>
     <row r="126" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A126" s="98" t="s">
-        <v>251</v>
-      </c>
-      <c r="B126" s="92" t="s">
-        <v>252</v>
-      </c>
-      <c r="C126" s="79" t="s">
-        <v>230</v>
+      <c r="A126" s="102" t="s">
+        <v>256</v>
+      </c>
+      <c r="B126" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="C126" s="83" t="s">
+        <v>235</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="10"/>
@@ -8307,15 +9528,15 @@
       <c r="J126" s="11"/>
     </row>
     <row r="127" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="99"/>
-      <c r="B127" s="93"/>
-      <c r="C127" s="80"/>
+      <c r="A127" s="103"/>
+      <c r="B127" s="97"/>
+      <c r="C127" s="84"/>
       <c r="D127" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="10"/>
@@ -8323,15 +9544,15 @@
       <c r="J127" s="11"/>
     </row>
     <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="99"/>
-      <c r="B128" s="93"/>
-      <c r="C128" s="80"/>
+      <c r="A128" s="103"/>
+      <c r="B128" s="97"/>
+      <c r="C128" s="84"/>
       <c r="D128" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="10"/>
@@ -8339,33 +9560,33 @@
       <c r="J128" s="11"/>
     </row>
     <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="99"/>
-      <c r="B129" s="93"/>
-      <c r="C129" s="80"/>
+      <c r="A129" s="103"/>
+      <c r="B129" s="97"/>
+      <c r="C129" s="84"/>
       <c r="D129" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="10"/>
       <c r="I129" s="10"/>
       <c r="J129" s="41" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A130" s="100"/>
-      <c r="B130" s="94"/>
-      <c r="C130" s="81"/>
+      <c r="A130" s="104"/>
+      <c r="B130" s="98"/>
+      <c r="C130" s="85"/>
       <c r="D130" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="10"/>
@@ -8385,21 +9606,21 @@
       <c r="J131" s="16"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="82" t="s">
-        <v>259</v>
-      </c>
-      <c r="B132" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="C132" s="79" t="s">
-        <v>261</v>
+      <c r="A132" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="B132" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" s="83" t="s">
+        <v>266</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="10"/>
@@ -8408,9 +9629,9 @@
       <c r="K132" s="6"/>
     </row>
     <row r="133" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="83"/>
-      <c r="B133" s="78"/>
-      <c r="C133" s="81"/>
+      <c r="A133" s="87"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="85"/>
       <c r="D133" s="3" t="s">
         <v>56</v>
       </c>
@@ -8436,21 +9657,21 @@
       <c r="J134" s="16"/>
     </row>
     <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="82" t="s">
-        <v>264</v>
-      </c>
-      <c r="B135" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="C135" s="79" t="s">
-        <v>261</v>
+      <c r="A135" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="B135" s="80" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135" s="83" t="s">
+        <v>266</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="10"/>
@@ -8458,20 +9679,20 @@
       <c r="J135" s="11"/>
     </row>
     <row r="136" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="83"/>
-      <c r="B136" s="78"/>
-      <c r="C136" s="81"/>
+      <c r="A136" s="87"/>
+      <c r="B136" s="82"/>
+      <c r="C136" s="85"/>
       <c r="D136" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
       <c r="J136" s="66" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -8487,10 +9708,10 @@
       <c r="J137" s="16"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="87" t="s">
-        <v>269</v>
-      </c>
-      <c r="B138" s="88"/>
+      <c r="A138" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="92"/>
       <c r="C138" s="67"/>
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
@@ -8502,16 +9723,16 @@
     </row>
     <row r="139" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C139" s="67" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="18"/>
@@ -8533,21 +9754,21 @@
       <c r="J140" s="16"/>
     </row>
     <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="98" t="s">
-        <v>274</v>
-      </c>
-      <c r="B141" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="C141" s="79" t="s">
-        <v>272</v>
+      <c r="A141" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="B141" s="96" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141" s="83" t="s">
+        <v>277</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="10"/>
@@ -8555,15 +9776,15 @@
       <c r="J141" s="11"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="99"/>
-      <c r="B142" s="93"/>
-      <c r="C142" s="80"/>
+      <c r="A142" s="103"/>
+      <c r="B142" s="97"/>
+      <c r="C142" s="84"/>
       <c r="D142" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="10"/>
@@ -8571,15 +9792,15 @@
       <c r="J142" s="11"/>
     </row>
     <row r="143" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A143" s="100"/>
-      <c r="B143" s="94"/>
-      <c r="C143" s="81"/>
+      <c r="A143" s="104"/>
+      <c r="B143" s="98"/>
+      <c r="C143" s="85"/>
       <c r="D143" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="10"/>
@@ -8599,21 +9820,21 @@
       <c r="J144" s="16"/>
     </row>
     <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="98" t="s">
-        <v>282</v>
-      </c>
-      <c r="B145" s="92" t="s">
-        <v>283</v>
-      </c>
-      <c r="C145" s="79" t="s">
-        <v>272</v>
+      <c r="A145" s="102" t="s">
+        <v>287</v>
+      </c>
+      <c r="B145" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="C145" s="83" t="s">
+        <v>277</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145" s="10"/>
@@ -8621,15 +9842,15 @@
       <c r="J145" s="11"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="99"/>
-      <c r="B146" s="93"/>
-      <c r="C146" s="80"/>
+      <c r="A146" s="103"/>
+      <c r="B146" s="97"/>
+      <c r="C146" s="84"/>
       <c r="D146" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G146" s="9"/>
       <c r="H146" s="10"/>
@@ -8637,15 +9858,15 @@
       <c r="J146" s="11"/>
     </row>
     <row r="147" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="100"/>
-      <c r="B147" s="94"/>
-      <c r="C147" s="81"/>
+      <c r="A147" s="104"/>
+      <c r="B147" s="98"/>
+      <c r="C147" s="85"/>
       <c r="D147" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G147" s="9"/>
       <c r="H147" s="10"/>
@@ -8665,21 +9886,21 @@
       <c r="J148" s="16"/>
     </row>
     <row r="149" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="98" t="s">
-        <v>286</v>
-      </c>
-      <c r="B149" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="C149" s="79" t="s">
-        <v>272</v>
+      <c r="A149" s="102" t="s">
+        <v>291</v>
+      </c>
+      <c r="B149" s="96" t="s">
+        <v>292</v>
+      </c>
+      <c r="C149" s="83" t="s">
+        <v>277</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G149" s="9"/>
       <c r="H149" s="10"/>
@@ -8687,15 +9908,15 @@
       <c r="J149" s="11"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="99"/>
-      <c r="B150" s="93"/>
-      <c r="C150" s="80"/>
+      <c r="A150" s="103"/>
+      <c r="B150" s="97"/>
+      <c r="C150" s="84"/>
       <c r="D150" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G150" s="9"/>
       <c r="H150" s="10"/>
@@ -8703,15 +9924,15 @@
       <c r="J150" s="11"/>
     </row>
     <row r="151" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A151" s="100"/>
-      <c r="B151" s="94"/>
-      <c r="C151" s="81"/>
+      <c r="A151" s="104"/>
+      <c r="B151" s="98"/>
+      <c r="C151" s="85"/>
       <c r="D151" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G151" s="9"/>
       <c r="H151" s="10"/>
@@ -8731,21 +9952,21 @@
       <c r="J152" s="16"/>
     </row>
     <row r="153" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="98" t="s">
-        <v>291</v>
-      </c>
-      <c r="B153" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="C153" s="79" t="s">
-        <v>272</v>
+      <c r="A153" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="B153" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="C153" s="83" t="s">
+        <v>277</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G153" s="9"/>
       <c r="H153" s="10"/>
@@ -8753,15 +9974,15 @@
       <c r="J153" s="11"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="99"/>
-      <c r="B154" s="93"/>
-      <c r="C154" s="80"/>
+      <c r="A154" s="103"/>
+      <c r="B154" s="97"/>
+      <c r="C154" s="84"/>
       <c r="D154" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G154" s="9"/>
       <c r="H154" s="10"/>
@@ -8769,15 +9990,15 @@
       <c r="J154" s="11"/>
     </row>
     <row r="155" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A155" s="100"/>
-      <c r="B155" s="94"/>
-      <c r="C155" s="81"/>
+      <c r="A155" s="104"/>
+      <c r="B155" s="98"/>
+      <c r="C155" s="85"/>
       <c r="D155" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G155" s="9"/>
       <c r="H155" s="10"/>
@@ -8798,20 +10019,20 @@
     </row>
     <row r="157" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A157" s="26" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C157" s="67" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="18" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G157" s="9"/>
       <c r="H157" s="10"/>
@@ -8832,20 +10053,20 @@
     </row>
     <row r="159" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A159" s="26" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C159" s="67" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="18" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G159" s="9"/>
       <c r="H159" s="10"/>
@@ -8865,10 +10086,10 @@
       <c r="J160" s="16"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="87" t="s">
-        <v>301</v>
-      </c>
-      <c r="B161" s="88"/>
+      <c r="A161" s="91" t="s">
+        <v>306</v>
+      </c>
+      <c r="B161" s="92"/>
       <c r="C161" s="67"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
@@ -8879,20 +10100,20 @@
       <c r="J161" s="11"/>
     </row>
     <row r="162" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A162" s="98" t="s">
-        <v>302</v>
-      </c>
-      <c r="B162" s="92" t="s">
-        <v>303</v>
-      </c>
-      <c r="C162" s="79" t="s">
-        <v>304</v>
+      <c r="A162" s="102" t="s">
+        <v>307</v>
+      </c>
+      <c r="B162" s="96" t="s">
+        <v>308</v>
+      </c>
+      <c r="C162" s="83" t="s">
+        <v>309</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="9"/>
@@ -8901,15 +10122,15 @@
       <c r="J162" s="11"/>
     </row>
     <row r="163" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="100"/>
-      <c r="B163" s="94"/>
-      <c r="C163" s="81"/>
+      <c r="A163" s="104"/>
+      <c r="B163" s="98"/>
+      <c r="C163" s="85"/>
       <c r="D163" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G163" s="9"/>
       <c r="H163" s="10"/>
@@ -8929,17 +10150,17 @@
       <c r="J164" s="16"/>
     </row>
     <row r="165" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="98" t="s">
+      <c r="A165" s="102" t="s">
+        <v>314</v>
+      </c>
+      <c r="B165" s="96" t="s">
+        <v>315</v>
+      </c>
+      <c r="C165" s="83" t="s">
         <v>309</v>
       </c>
-      <c r="B165" s="92" t="s">
-        <v>310</v>
-      </c>
-      <c r="C165" s="79" t="s">
-        <v>304</v>
-      </c>
       <c r="D165" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="1"/>
@@ -8949,15 +10170,15 @@
       <c r="J165" s="11"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="100"/>
-      <c r="B166" s="94"/>
-      <c r="C166" s="81"/>
+      <c r="A166" s="104"/>
+      <c r="B166" s="98"/>
+      <c r="C166" s="85"/>
       <c r="D166" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G166" s="9"/>
       <c r="H166" s="10"/>
@@ -8977,20 +10198,20 @@
       <c r="J167" s="16"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="98" t="s">
-        <v>313</v>
-      </c>
-      <c r="B168" s="92" t="s">
-        <v>314</v>
-      </c>
-      <c r="C168" s="79" t="s">
-        <v>304</v>
+      <c r="A168" s="102" t="s">
+        <v>318</v>
+      </c>
+      <c r="B168" s="96" t="s">
+        <v>319</v>
+      </c>
+      <c r="C168" s="83" t="s">
+        <v>309</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="9"/>
@@ -8999,19 +10220,21 @@
       <c r="J168" s="11"/>
     </row>
     <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="100"/>
-      <c r="B169" s="94"/>
-      <c r="C169" s="81"/>
+      <c r="A169" s="104"/>
+      <c r="B169" s="98"/>
+      <c r="C169" s="85"/>
       <c r="D169" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G169" s="9"/>
       <c r="H169" s="10"/>
-      <c r="I169" s="10"/>
+      <c r="I169" s="10" t="s">
+        <v>323</v>
+      </c>
       <c r="J169" s="11"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -9027,20 +10250,20 @@
       <c r="J170" s="16"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="98" t="s">
-        <v>318</v>
-      </c>
-      <c r="B171" s="92" t="s">
-        <v>319</v>
-      </c>
-      <c r="C171" s="79" t="s">
-        <v>304</v>
+      <c r="A171" s="102" t="s">
+        <v>324</v>
+      </c>
+      <c r="B171" s="96" t="s">
+        <v>325</v>
+      </c>
+      <c r="C171" s="83" t="s">
+        <v>309</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="9"/>
@@ -9049,19 +10272,21 @@
       <c r="J171" s="11"/>
     </row>
     <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="100"/>
-      <c r="B172" s="94"/>
-      <c r="C172" s="81"/>
+      <c r="A172" s="104"/>
+      <c r="B172" s="98"/>
+      <c r="C172" s="85"/>
       <c r="D172" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G172" s="9"/>
       <c r="H172" s="10"/>
-      <c r="I172" s="10"/>
+      <c r="I172" s="10" t="s">
+        <v>328</v>
+      </c>
       <c r="J172" s="11"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -9077,17 +10302,17 @@
       <c r="J173" s="16"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="98" t="s">
-        <v>322</v>
-      </c>
-      <c r="B174" s="92" t="s">
-        <v>323</v>
-      </c>
-      <c r="C174" s="79" t="s">
-        <v>304</v>
+      <c r="A174" s="102" t="s">
+        <v>329</v>
+      </c>
+      <c r="B174" s="96" t="s">
+        <v>330</v>
+      </c>
+      <c r="C174" s="83" t="s">
+        <v>309</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="1"/>
@@ -9097,15 +10322,15 @@
       <c r="J174" s="11"/>
     </row>
     <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="100"/>
-      <c r="B175" s="94"/>
-      <c r="C175" s="81"/>
+      <c r="A175" s="104"/>
+      <c r="B175" s="98"/>
+      <c r="C175" s="85"/>
       <c r="D175" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175" s="3" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G175" s="9"/>
       <c r="H175" s="10"/>
@@ -9125,17 +10350,17 @@
       <c r="J176" s="16"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="98" t="s">
-        <v>326</v>
-      </c>
-      <c r="B177" s="92" t="s">
-        <v>327</v>
-      </c>
-      <c r="C177" s="79" t="s">
-        <v>304</v>
+      <c r="A177" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="B177" s="96" t="s">
+        <v>334</v>
+      </c>
+      <c r="C177" s="83" t="s">
+        <v>309</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="1"/>
@@ -9145,15 +10370,15 @@
       <c r="J177" s="11"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="100"/>
-      <c r="B178" s="94"/>
-      <c r="C178" s="81"/>
+      <c r="A178" s="104"/>
+      <c r="B178" s="98"/>
+      <c r="C178" s="85"/>
       <c r="D178" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E178" s="4"/>
       <c r="F178" s="3" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G178" s="9"/>
       <c r="H178" s="10"/>
@@ -9173,17 +10398,17 @@
       <c r="J179" s="16"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="98" t="s">
-        <v>330</v>
-      </c>
-      <c r="B180" s="92" t="s">
-        <v>331</v>
-      </c>
-      <c r="C180" s="79" t="s">
-        <v>304</v>
+      <c r="A180" s="102" t="s">
+        <v>337</v>
+      </c>
+      <c r="B180" s="96" t="s">
+        <v>338</v>
+      </c>
+      <c r="C180" s="83" t="s">
+        <v>309</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="1"/>
@@ -9193,15 +10418,15 @@
       <c r="J180" s="11"/>
     </row>
     <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="100"/>
-      <c r="B181" s="94"/>
-      <c r="C181" s="81"/>
+      <c r="A181" s="104"/>
+      <c r="B181" s="98"/>
+      <c r="C181" s="85"/>
       <c r="D181" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181" s="3" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G181" s="9"/>
       <c r="H181" s="10"/>
@@ -9221,17 +10446,17 @@
       <c r="J182" s="16"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="98" t="s">
-        <v>334</v>
-      </c>
-      <c r="B183" s="92" t="s">
-        <v>335</v>
-      </c>
-      <c r="C183" s="79" t="s">
-        <v>304</v>
+      <c r="A183" s="102" t="s">
+        <v>341</v>
+      </c>
+      <c r="B183" s="96" t="s">
+        <v>342</v>
+      </c>
+      <c r="C183" s="83" t="s">
+        <v>309</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="1"/>
@@ -9241,15 +10466,15 @@
       <c r="J183" s="11"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="100"/>
-      <c r="B184" s="94"/>
-      <c r="C184" s="81"/>
+      <c r="A184" s="104"/>
+      <c r="B184" s="98"/>
+      <c r="C184" s="85"/>
       <c r="D184" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E184" s="4"/>
       <c r="F184" s="3" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G184" s="9"/>
       <c r="H184" s="10"/>
@@ -9269,17 +10494,17 @@
       <c r="J185" s="16"/>
     </row>
     <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="98" t="s">
-        <v>337</v>
-      </c>
-      <c r="B186" s="92" t="s">
-        <v>338</v>
-      </c>
-      <c r="C186" s="79" t="s">
-        <v>304</v>
+      <c r="A186" s="102" t="s">
+        <v>344</v>
+      </c>
+      <c r="B186" s="96" t="s">
+        <v>345</v>
+      </c>
+      <c r="C186" s="83" t="s">
+        <v>309</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="1"/>
@@ -9289,15 +10514,15 @@
       <c r="J186" s="11"/>
     </row>
     <row r="187" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="100"/>
-      <c r="B187" s="94"/>
-      <c r="C187" s="81"/>
+      <c r="A187" s="104"/>
+      <c r="B187" s="98"/>
+      <c r="C187" s="85"/>
       <c r="D187" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E187" s="4"/>
       <c r="F187" s="3" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G187" s="9"/>
       <c r="H187" s="10"/>
@@ -9317,17 +10542,17 @@
       <c r="J188" s="16"/>
     </row>
     <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="98" t="s">
-        <v>341</v>
-      </c>
-      <c r="B189" s="92" t="s">
-        <v>342</v>
-      </c>
-      <c r="C189" s="79" t="s">
-        <v>304</v>
+      <c r="A189" s="102" t="s">
+        <v>348</v>
+      </c>
+      <c r="B189" s="96" t="s">
+        <v>349</v>
+      </c>
+      <c r="C189" s="83" t="s">
+        <v>309</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="1"/>
@@ -9337,15 +10562,15 @@
       <c r="J189" s="11"/>
     </row>
     <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="100"/>
-      <c r="B190" s="94"/>
-      <c r="C190" s="81"/>
+      <c r="A190" s="104"/>
+      <c r="B190" s="98"/>
+      <c r="C190" s="85"/>
       <c r="D190" s="3" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E190" s="4"/>
       <c r="F190" s="3" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G190" s="9"/>
       <c r="H190" s="10"/>
@@ -9365,21 +10590,21 @@
       <c r="J191" s="16"/>
     </row>
     <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="98" t="s">
-        <v>345</v>
-      </c>
-      <c r="B192" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="C192" s="79" t="s">
-        <v>347</v>
+      <c r="A192" s="102" t="s">
+        <v>352</v>
+      </c>
+      <c r="B192" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="C192" s="83" t="s">
+        <v>354</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G192" s="9"/>
       <c r="H192" s="10"/>
@@ -9388,9 +10613,9 @@
       <c r="K192" s="6"/>
     </row>
     <row r="193" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A193" s="100"/>
-      <c r="B193" s="78"/>
-      <c r="C193" s="81"/>
+      <c r="A193" s="104"/>
+      <c r="B193" s="82"/>
+      <c r="C193" s="85"/>
       <c r="D193" s="3" t="s">
         <v>56</v>
       </c>
@@ -11685,4 +12910,759 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:U27"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="10" customWidth="1"/>
+    <col min="6" max="7" width="35.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9" style="10" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="10"/>
+    <col min="21" max="21" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="M1" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="N1" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="O1" s="69" t="s">
+        <v>368</v>
+      </c>
+      <c r="P1" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q1" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="S1" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="T1" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="U1" s="69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="70" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="70">
+        <v>1</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="J2" s="70">
+        <v>5</v>
+      </c>
+      <c r="K2" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="L2" s="70" t="s">
+        <v>381</v>
+      </c>
+      <c r="M2" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="O2" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q2" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="R2" s="70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="57">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="J3" s="10">
+        <v>3</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="S3" s="71" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="70" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="70">
+        <v>3</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="J4" s="70">
+        <v>2</v>
+      </c>
+      <c r="K4" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="L4" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q4" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="R4" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="S4" s="70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="57">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="J5" s="10">
+        <v>3</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="S5" s="71" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="70" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="70">
+        <v>5</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>408</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>409</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>410</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>411</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="J6" s="70">
+        <v>5</v>
+      </c>
+      <c r="K6" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="L6" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="N6" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="O6" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q6" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="R6" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="S6" s="70" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="180" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="S7" s="71"/>
+    </row>
+    <row r="8" spans="1:21" s="70" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="70">
+        <v>7</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>422</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>423</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>424</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>425</v>
+      </c>
+      <c r="I8" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="J8" s="70">
+        <v>2</v>
+      </c>
+      <c r="K8" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="L8" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="M8" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="O8" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="R8" s="70" t="s">
+        <v>420</v>
+      </c>
+      <c r="S8" s="70" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="57">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="J9" s="10">
+        <v>5</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="S9" s="71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="S11" s="71"/>
+    </row>
+    <row r="12" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="S13" s="71"/>
+    </row>
+    <row r="14" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="S15" s="71"/>
+    </row>
+    <row r="16" spans="1:21" s="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="S17" s="71"/>
+    </row>
+    <row r="18" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="S19" s="71"/>
+    </row>
+    <row r="20" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="S21" s="71"/>
+    </row>
+    <row r="22" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="S23" s="71"/>
+    </row>
+    <row r="24" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="S25" s="71"/>
+    </row>
+    <row r="26" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="S27" s="71"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S3" location="'Issue 2 SS'!A1" display="Issue 2"/>
+    <hyperlink ref="S4" location="'Issue 3 SS'!A1" display="Issue 3"/>
+    <hyperlink ref="S5" location="'Issue 4 SS'!A1" display="Issue 4"/>
+    <hyperlink ref="S6" location="'Issue 5 SS'!A1" display="Issue 5"/>
+    <hyperlink ref="S8" location="'Issue 7 SS'!A1" display="Issue 7"/>
+    <hyperlink ref="S9" location="'Issue 8 SS'!A1" display="Issue 8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lokups!$H$6:$H$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>T2:T9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lokups!$G$6:$G$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q312</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lokups!$E$6:$E$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J453</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lokups!$F$6:$F$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I342</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lokups!$D$6:$D$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C145</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>